--- a/docs/Examples/Diad_Fitting_Nov22nd2022/PseudoVoigt.xlsx
+++ b/docs/Examples/Diad_Fitting_Nov22nd2022/PseudoVoigt.xlsx
@@ -1372,52 +1372,52 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1453.824137617647</v>
+        <v>1453.824137714816</v>
       </c>
       <c r="D2">
-        <v>21207.70303095224</v>
+        <v>21207.72021478431</v>
       </c>
       <c r="E2">
-        <v>0.6203307882440268</v>
+        <v>0.6203285339049449</v>
       </c>
       <c r="G2">
         <v>0.00225</v>
       </c>
       <c r="H2">
-        <v>0.3738912626189699</v>
+        <v>0.3738985059721814</v>
       </c>
       <c r="I2">
-        <v>1123.568548802917</v>
+        <v>1123.568547787701</v>
       </c>
       <c r="J2">
-        <v>1446.803823366546</v>
+        <v>1446.814895226042</v>
       </c>
       <c r="K2">
-        <v>0.6289845693078093</v>
+        <v>0.6289771011143301</v>
       </c>
       <c r="N2">
-        <v>0.407644591444426</v>
+        <v>0.407680087411411</v>
       </c>
       <c r="O2">
-        <v>330.2555888147292</v>
+        <v>330.2555899271149</v>
       </c>
       <c r="P2">
-        <v>1.000672344509598</v>
+        <v>1.000672341139076</v>
       </c>
       <c r="S2">
-        <v>41.66601702489248</v>
+        <v>41.66655271648441</v>
       </c>
       <c r="T2">
-        <v>6.136634274611758</v>
+        <v>6.13672582002035</v>
       </c>
       <c r="U2">
-        <v>47.80265129950423</v>
+        <v>47.80327853650476</v>
       </c>
       <c r="V2" t="s">
         <v>110</v>
@@ -1458,52 +1458,52 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3">
-        <v>1453.828523170974</v>
+        <v>1453.828523171554</v>
       </c>
       <c r="D3">
-        <v>21691.26869000334</v>
+        <v>21691.26884916821</v>
       </c>
       <c r="E3">
-        <v>0.618436374188081</v>
+        <v>0.61843636393068</v>
       </c>
       <c r="G3">
         <v>0.00235</v>
       </c>
       <c r="H3">
-        <v>0.3660781522427404</v>
+        <v>0.3660781948380815</v>
       </c>
       <c r="I3">
-        <v>1123.554533827292</v>
+        <v>1123.554532978428</v>
       </c>
       <c r="J3">
-        <v>1328.300334324857</v>
+        <v>1328.306884272581</v>
       </c>
       <c r="K3">
-        <v>0.6486943508549476</v>
+        <v>0.6486933413875037</v>
       </c>
       <c r="N3">
-        <v>0.408753408989567</v>
+        <v>0.4087679679214551</v>
       </c>
       <c r="O3">
-        <v>330.2739893436817</v>
+        <v>330.2739901931252</v>
       </c>
       <c r="P3">
-        <v>1.000616594129486</v>
+        <v>1.000616591555964</v>
       </c>
       <c r="S3">
-        <v>42.80648066582155</v>
+        <v>42.80647971611094</v>
       </c>
       <c r="T3">
-        <v>5.335440795274306</v>
+        <v>5.33545365352766</v>
       </c>
       <c r="U3">
-        <v>48.14192146109585</v>
+        <v>48.1419333696386</v>
       </c>
       <c r="V3" t="s">
         <v>111</v>
@@ -1544,52 +1544,52 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4">
-        <v>1453.82232508842</v>
+        <v>1453.82232508809</v>
       </c>
       <c r="D4">
-        <v>20320.58008232972</v>
+        <v>20320.58024531272</v>
       </c>
       <c r="E4">
-        <v>0.622862064965978</v>
+        <v>0.6228620545919288</v>
       </c>
       <c r="G4">
         <v>0.00225</v>
       </c>
       <c r="H4">
-        <v>0.366353904484883</v>
+        <v>0.3663539501751377</v>
       </c>
       <c r="I4">
-        <v>1123.54114258063</v>
+        <v>1123.541146200543</v>
       </c>
       <c r="J4">
-        <v>1618.822965399141</v>
+        <v>1618.787593186444</v>
       </c>
       <c r="K4">
-        <v>0.6397505053136393</v>
+        <v>0.6397488129682439</v>
       </c>
       <c r="N4">
-        <v>0.4180796015395439</v>
+        <v>0.4180314224779178</v>
       </c>
       <c r="O4">
-        <v>330.2811825077908</v>
+        <v>330.2811788875467</v>
       </c>
       <c r="P4">
-        <v>1.000594801790857</v>
+        <v>1.000594812758474</v>
       </c>
       <c r="S4">
-        <v>38.41164225609825</v>
+        <v>38.41164138306906</v>
       </c>
       <c r="T4">
-        <v>6.845309759047682</v>
+        <v>6.845346686930621</v>
       </c>
       <c r="U4">
-        <v>45.25695201514593</v>
+        <v>45.25698806999968</v>
       </c>
       <c r="V4" t="s">
         <v>112</v>
@@ -1630,52 +1630,52 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5">
-        <v>1453.816835426511</v>
+        <v>1453.816835429267</v>
       </c>
       <c r="D5">
-        <v>19843.74617882332</v>
+        <v>19843.74687413721</v>
       </c>
       <c r="E5">
-        <v>0.6197855124530839</v>
+        <v>0.6197854340411275</v>
       </c>
       <c r="G5">
         <v>0.00251</v>
       </c>
       <c r="H5">
-        <v>0.3851313432453344</v>
+        <v>0.3851316134418831</v>
       </c>
       <c r="I5">
-        <v>1123.55121898468</v>
+        <v>1123.551220285326</v>
       </c>
       <c r="J5">
-        <v>1499.902221177247</v>
+        <v>1499.88906715851</v>
       </c>
       <c r="K5">
-        <v>0.6364214059955434</v>
+        <v>0.6364212484747924</v>
       </c>
       <c r="N5">
-        <v>0.4481346088418294</v>
+        <v>0.448113978474632</v>
       </c>
       <c r="O5">
-        <v>330.2656164418304</v>
+        <v>330.2656151439405</v>
       </c>
       <c r="P5">
-        <v>1.000641961785446</v>
+        <v>1.000641965717805</v>
       </c>
       <c r="S5">
-        <v>41.20600342272846</v>
+        <v>41.20599166488984</v>
       </c>
       <c r="T5">
-        <v>5.938016070254659</v>
+        <v>5.937953047832835</v>
       </c>
       <c r="U5">
-        <v>47.14401949298313</v>
+        <v>47.14394471272267</v>
       </c>
       <c r="V5" t="s">
         <v>113</v>
@@ -1716,52 +1716,52 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6">
-        <v>1453.817174058483</v>
+        <v>1453.817174057574</v>
       </c>
       <c r="D6">
-        <v>20547.57616238573</v>
+        <v>20547.57647772583</v>
       </c>
       <c r="E6">
-        <v>0.6222773741644748</v>
+        <v>0.6222773537309388</v>
       </c>
       <c r="G6">
         <v>0.00261</v>
       </c>
       <c r="H6">
-        <v>0.3797556189211931</v>
+        <v>0.3797557088542522</v>
       </c>
       <c r="I6">
-        <v>1123.542333151301</v>
+        <v>1123.542339957882</v>
       </c>
       <c r="J6">
-        <v>1460.84604179274</v>
+        <v>1460.787562120133</v>
       </c>
       <c r="K6">
-        <v>0.6439072747346586</v>
+        <v>0.6439104430748237</v>
       </c>
       <c r="N6">
-        <v>0.3996396711984958</v>
+        <v>0.3995344166833444</v>
       </c>
       <c r="O6">
-        <v>330.2748409071819</v>
+        <v>330.274834099692</v>
       </c>
       <c r="P6">
-        <v>1.000614014191617</v>
+        <v>1.000614034815864</v>
       </c>
       <c r="S6">
-        <v>43.86641947580991</v>
+        <v>43.86642492125705</v>
       </c>
       <c r="T6">
-        <v>6.589213550353227</v>
+        <v>6.587570567940721</v>
       </c>
       <c r="U6">
-        <v>50.45563302616314</v>
+        <v>50.45399548919777</v>
       </c>
       <c r="V6" t="s">
         <v>114</v>
@@ -1802,52 +1802,52 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="1">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7">
-        <v>1453.81464777734</v>
+        <v>1453.81464777805</v>
       </c>
       <c r="D7">
-        <v>20645.55483305976</v>
+        <v>20645.55513732425</v>
       </c>
       <c r="E7">
-        <v>0.6258569563684403</v>
+        <v>0.6258569407193386</v>
       </c>
       <c r="G7">
         <v>0.0024</v>
       </c>
       <c r="H7">
-        <v>0.3762980750504003</v>
+        <v>0.3762981485684497</v>
       </c>
       <c r="I7">
-        <v>1123.545978248079</v>
+        <v>1123.545971591188</v>
       </c>
       <c r="J7">
-        <v>1526.459951274195</v>
+        <v>1526.529611717551</v>
       </c>
       <c r="K7">
-        <v>0.6179887449575718</v>
+        <v>0.6179864765529425</v>
       </c>
       <c r="N7">
-        <v>0.4369525760249143</v>
+        <v>0.4370681548091611</v>
       </c>
       <c r="O7">
-        <v>330.2686695292614</v>
+        <v>330.2686761868626</v>
       </c>
       <c r="P7">
-        <v>1.000632711597105</v>
+        <v>1.000632691426213</v>
       </c>
       <c r="S7">
-        <v>40.35810686280233</v>
+        <v>40.35810681807515</v>
       </c>
       <c r="T7">
-        <v>5.706425562660935</v>
+        <v>5.707204882251992</v>
       </c>
       <c r="U7">
-        <v>46.06453242546326</v>
+        <v>46.06531170032714</v>
       </c>
       <c r="V7" t="s">
         <v>115</v>
@@ -1888,52 +1888,52 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8">
-        <v>1453.806151710963</v>
+        <v>1453.806151710498</v>
       </c>
       <c r="D8">
-        <v>20375.29319152705</v>
+        <v>20375.29387089088</v>
       </c>
       <c r="E8">
-        <v>0.6247821161931995</v>
+        <v>0.6247820811480714</v>
       </c>
       <c r="G8">
         <v>0.00256</v>
       </c>
       <c r="H8">
-        <v>0.378946966696958</v>
+        <v>0.3789471321543898</v>
       </c>
       <c r="I8">
-        <v>1123.528180578489</v>
+        <v>1123.528186164621</v>
       </c>
       <c r="J8">
-        <v>1503.053033470704</v>
+        <v>1502.999477098808</v>
       </c>
       <c r="K8">
-        <v>0.6318322006894006</v>
+        <v>0.6318378993561191</v>
       </c>
       <c r="N8">
-        <v>0.4565308321076083</v>
+        <v>0.4564325992897703</v>
       </c>
       <c r="O8">
-        <v>330.2779711324738</v>
+        <v>330.2779655458769</v>
       </c>
       <c r="P8">
-        <v>1.000604530824367</v>
+        <v>1.000604547749427</v>
       </c>
       <c r="S8">
-        <v>43.53803626224164</v>
+        <v>43.5380453818754</v>
       </c>
       <c r="T8">
-        <v>6.767854571573873</v>
+        <v>6.766591442821113</v>
       </c>
       <c r="U8">
-        <v>50.30589083381551</v>
+        <v>50.30463682469652</v>
       </c>
       <c r="V8" t="s">
         <v>116</v>
@@ -1980,46 +1980,46 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>1453.806207177093</v>
+        <v>1453.806207175838</v>
       </c>
       <c r="D9">
-        <v>20097.25052536306</v>
+        <v>20097.25090333418</v>
       </c>
       <c r="E9">
-        <v>0.626352209920644</v>
+        <v>0.6263521802234405</v>
       </c>
       <c r="G9">
         <v>0.00242</v>
       </c>
       <c r="H9">
-        <v>0.3707415679161942</v>
+        <v>0.3707416866545901</v>
       </c>
       <c r="I9">
-        <v>1123.52543772263</v>
+        <v>1123.525435080556</v>
       </c>
       <c r="J9">
-        <v>1555.364671935246</v>
+        <v>1555.39825861347</v>
       </c>
       <c r="K9">
-        <v>0.6275191482360873</v>
+        <v>0.6275227749175499</v>
       </c>
       <c r="N9">
-        <v>0.4686253719932492</v>
+        <v>0.468667839678608</v>
       </c>
       <c r="O9">
-        <v>330.2807694544636</v>
+        <v>330.2807720952824</v>
       </c>
       <c r="P9">
-        <v>1.000596053147431</v>
+        <v>1.000596045146987</v>
       </c>
       <c r="S9">
-        <v>41.31029957357389</v>
+        <v>41.31030635155285</v>
       </c>
       <c r="T9">
-        <v>6.709551075173997</v>
+        <v>6.70957327780873</v>
       </c>
       <c r="U9">
-        <v>48.01985064874788</v>
+        <v>48.01987962936158</v>
       </c>
       <c r="V9" t="s">
         <v>117</v>
@@ -2066,46 +2066,46 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1453.772211012292</v>
+        <v>1453.772211006492</v>
       </c>
       <c r="D10">
-        <v>21259.41270511934</v>
+        <v>21259.41648165957</v>
       </c>
       <c r="E10">
-        <v>0.6287114752598962</v>
+        <v>0.6287112020199872</v>
       </c>
       <c r="G10">
         <v>0.00235</v>
       </c>
       <c r="H10">
-        <v>0.3587652119421302</v>
+        <v>0.3587663354259155</v>
       </c>
       <c r="I10">
-        <v>1123.488111348626</v>
+        <v>1123.488118664177</v>
       </c>
       <c r="J10">
-        <v>1619.03971583741</v>
+        <v>1618.965162678575</v>
       </c>
       <c r="K10">
-        <v>0.6316004727242419</v>
+        <v>0.6316029148854001</v>
       </c>
       <c r="N10">
-        <v>0.4850134049077955</v>
+        <v>0.484900352858616</v>
       </c>
       <c r="O10">
-        <v>330.284099663666</v>
+        <v>330.2840923423146</v>
       </c>
       <c r="P10">
-        <v>1.000585964274889</v>
+        <v>1.000585986454708</v>
       </c>
       <c r="S10">
-        <v>43.37875795799251</v>
+        <v>43.37880904129673</v>
       </c>
       <c r="T10">
-        <v>6.919480066708656</v>
+        <v>6.916559647688471</v>
       </c>
       <c r="U10">
-        <v>50.29823802470116</v>
+        <v>50.2953686889852</v>
       </c>
       <c r="V10" t="s">
         <v>118</v>
@@ -2146,52 +2146,52 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1453.755112667027</v>
+        <v>1453.755112678146</v>
       </c>
       <c r="D11">
-        <v>21055.08460929279</v>
+        <v>21055.08583936378</v>
       </c>
       <c r="E11">
-        <v>0.6316555125464929</v>
+        <v>0.6316554284304758</v>
       </c>
       <c r="G11">
         <v>0.0024</v>
       </c>
       <c r="H11">
-        <v>0.354788635286902</v>
+        <v>0.3547889852606788</v>
       </c>
       <c r="I11">
-        <v>1123.473257464632</v>
+        <v>1123.473258040811</v>
       </c>
       <c r="J11">
-        <v>1624.151170479412</v>
+        <v>1624.144446385512</v>
       </c>
       <c r="K11">
-        <v>0.6051804239402793</v>
+        <v>0.6051822022712319</v>
       </c>
       <c r="N11">
-        <v>0.4796700335074092</v>
+        <v>0.4796559814508799</v>
       </c>
       <c r="O11">
-        <v>330.2818552023955</v>
+        <v>330.2818546373355</v>
       </c>
       <c r="P11">
-        <v>1.000592763850492</v>
+        <v>1.000592765562348</v>
       </c>
       <c r="S11">
-        <v>42.16183727867264</v>
+        <v>42.16183567112072</v>
       </c>
       <c r="T11">
-        <v>6.204784038720343</v>
+        <v>6.204757435848779</v>
       </c>
       <c r="U11">
-        <v>48.36662131739298</v>
+        <v>48.3665931069695</v>
       </c>
       <c r="V11" t="s">
         <v>119</v>
@@ -2232,52 +2232,52 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12">
-        <v>1453.76064062082</v>
+        <v>1453.760640616532</v>
       </c>
       <c r="D12">
-        <v>20116.48176684363</v>
+        <v>20116.48240334301</v>
       </c>
       <c r="E12">
-        <v>0.6295396433239767</v>
+        <v>0.6295395681675494</v>
       </c>
       <c r="G12">
         <v>0.00237</v>
       </c>
       <c r="H12">
-        <v>0.3688526885554322</v>
+        <v>0.3688529625782946</v>
       </c>
       <c r="I12">
-        <v>1123.483662511573</v>
+        <v>1123.483657920616</v>
       </c>
       <c r="J12">
-        <v>1621.711112376072</v>
+        <v>1621.751332245012</v>
       </c>
       <c r="K12">
-        <v>0.6328088832622025</v>
+        <v>0.6328115631518376</v>
       </c>
       <c r="N12">
-        <v>0.4085644668288635</v>
+        <v>0.4086171005221049</v>
       </c>
       <c r="O12">
-        <v>330.2769781092468</v>
+        <v>330.2769826959161</v>
       </c>
       <c r="P12">
-        <v>1.000607539279712</v>
+        <v>1.000607525383933</v>
       </c>
       <c r="S12">
-        <v>41.00096681126971</v>
+        <v>41.00097667765822</v>
       </c>
       <c r="T12">
-        <v>5.842607860292798</v>
+        <v>5.842952652437667</v>
       </c>
       <c r="U12">
-        <v>46.84357467156251</v>
+        <v>46.84392933009589</v>
       </c>
       <c r="V12" t="s">
         <v>120</v>
@@ -2318,52 +2318,52 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13">
-        <v>1453.772985346082</v>
+        <v>1453.772985343938</v>
       </c>
       <c r="D13">
-        <v>19064.19347919692</v>
+        <v>19064.19294519749</v>
       </c>
       <c r="E13">
-        <v>0.6357654221091926</v>
+        <v>0.6357654591239388</v>
       </c>
       <c r="G13">
         <v>0.00219</v>
       </c>
       <c r="H13">
-        <v>0.3548557404329321</v>
+        <v>0.3548555788575822</v>
       </c>
       <c r="I13">
-        <v>1123.50100874186</v>
+        <v>1123.501004286465</v>
       </c>
       <c r="J13">
-        <v>1465.320231878166</v>
+        <v>1465.369374660223</v>
       </c>
       <c r="K13">
-        <v>0.6377440740979078</v>
+        <v>0.637743005123617</v>
       </c>
       <c r="N13">
-        <v>0.4171905942396625</v>
+        <v>0.4172749688708615</v>
       </c>
       <c r="O13">
-        <v>330.2719766042223</v>
+        <v>330.2719810574724</v>
       </c>
       <c r="P13">
-        <v>1.000622692074953</v>
+        <v>1.000622678582973</v>
       </c>
       <c r="S13">
-        <v>34.86634640766116</v>
+        <v>34.8663489717361</v>
       </c>
       <c r="T13">
-        <v>5.799394833781495</v>
+        <v>5.799699552909318</v>
       </c>
       <c r="U13">
-        <v>40.66574124144266</v>
+        <v>40.66604852464542</v>
       </c>
       <c r="V13" t="s">
         <v>121</v>
@@ -2404,52 +2404,52 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1453.781043920313</v>
+        <v>1453.78104391501</v>
       </c>
       <c r="D14">
-        <v>18754.56860927058</v>
+        <v>18754.56856891526</v>
       </c>
       <c r="E14">
-        <v>0.6314794067202425</v>
+        <v>0.6314793946109969</v>
       </c>
       <c r="G14">
         <v>0.00233</v>
       </c>
       <c r="H14">
-        <v>0.3678898866220752</v>
+        <v>0.3678899026864748</v>
       </c>
       <c r="I14">
-        <v>1123.494603870492</v>
+        <v>1123.494606094334</v>
       </c>
       <c r="J14">
-        <v>1478.990069893829</v>
+        <v>1478.965225045436</v>
       </c>
       <c r="K14">
-        <v>0.633102069411143</v>
+        <v>0.6331054541474053</v>
       </c>
       <c r="N14">
-        <v>0.4670721412002165</v>
+        <v>0.4670245868776213</v>
       </c>
       <c r="O14">
-        <v>330.2864400498211</v>
+        <v>330.2864378206759</v>
       </c>
       <c r="P14">
-        <v>1.000578874194118</v>
+        <v>1.000578880947151</v>
       </c>
       <c r="S14">
-        <v>35.5884820886591</v>
+        <v>35.58847536670353</v>
       </c>
       <c r="T14">
-        <v>5.975962113656439</v>
+        <v>5.975829979263666</v>
       </c>
       <c r="U14">
-        <v>41.56444420231553</v>
+        <v>41.5643053459672</v>
       </c>
       <c r="V14" t="s">
         <v>122</v>
@@ -2490,52 +2490,52 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="1">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
       <c r="C15">
-        <v>1453.781491279465</v>
+        <v>1453.78149129262</v>
       </c>
       <c r="D15">
-        <v>18682.13194629939</v>
+        <v>18682.1332981365</v>
       </c>
       <c r="E15">
-        <v>0.634751553319183</v>
+        <v>0.6347514478063032</v>
       </c>
       <c r="G15">
         <v>0.00227</v>
       </c>
       <c r="H15">
-        <v>0.3554949954276559</v>
+        <v>0.3554954333121206</v>
       </c>
       <c r="I15">
-        <v>1123.495290996233</v>
+        <v>1123.495291797125</v>
       </c>
       <c r="J15">
-        <v>1417.802841818509</v>
+        <v>1417.792738076514</v>
       </c>
       <c r="K15">
-        <v>0.6426220706435171</v>
+        <v>0.6426253205236804</v>
       </c>
       <c r="N15">
-        <v>0.4324209741530566</v>
+        <v>0.4323961891388208</v>
       </c>
       <c r="O15">
-        <v>330.2862002832328</v>
+        <v>330.2861994954947</v>
       </c>
       <c r="P15">
-        <v>1.000579600550177</v>
+        <v>1.000579602936576</v>
       </c>
       <c r="S15">
-        <v>34.8591706970011</v>
+        <v>34.85916766666433</v>
       </c>
       <c r="T15">
-        <v>5.814889203460547</v>
+        <v>5.814719656851782</v>
       </c>
       <c r="U15">
-        <v>40.67405990046164</v>
+        <v>40.67388732351611</v>
       </c>
       <c r="V15" t="s">
         <v>123</v>
@@ -2576,52 +2576,52 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16">
-        <v>1453.783114568154</v>
+        <v>1453.783114557011</v>
       </c>
       <c r="D16">
-        <v>18883.5395588875</v>
+        <v>18883.54168724222</v>
       </c>
       <c r="E16">
-        <v>0.6287941122285469</v>
+        <v>0.6287939079785784</v>
       </c>
       <c r="G16">
         <v>0.00229</v>
       </c>
       <c r="H16">
-        <v>0.3672052136681804</v>
+        <v>0.3672059826854112</v>
       </c>
       <c r="I16">
-        <v>1123.487365013708</v>
+        <v>1123.487366548228</v>
       </c>
       <c r="J16">
-        <v>1430.806311106748</v>
+        <v>1430.790624950198</v>
       </c>
       <c r="K16">
-        <v>0.6414933527492283</v>
+        <v>0.6414941937218998</v>
       </c>
       <c r="N16">
-        <v>0.4281051386032996</v>
+        <v>0.4280765619279186</v>
       </c>
       <c r="O16">
-        <v>330.2957495544456</v>
+        <v>330.295748008783</v>
       </c>
       <c r="P16">
-        <v>1.000550672518289</v>
+        <v>1.000550677200498</v>
       </c>
       <c r="S16">
-        <v>36.92708935398885</v>
+        <v>36.927123792199</v>
       </c>
       <c r="T16">
-        <v>6.849910290684576</v>
+        <v>6.849827499972885</v>
       </c>
       <c r="U16">
-        <v>43.77699964467343</v>
+        <v>43.77695129217188</v>
       </c>
       <c r="V16" t="s">
         <v>124</v>
@@ -2662,52 +2662,52 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="1">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17">
-        <v>1453.786988779339</v>
+        <v>1453.786988785364</v>
       </c>
       <c r="D17">
-        <v>18861.88990116188</v>
+        <v>18861.8904308645</v>
       </c>
       <c r="E17">
-        <v>0.6301461241118053</v>
+        <v>0.630146115570549</v>
       </c>
       <c r="G17">
         <v>0.00235</v>
       </c>
       <c r="H17">
-        <v>0.361600144358377</v>
+        <v>0.3616002428793426</v>
       </c>
       <c r="I17">
-        <v>1123.492104564333</v>
+        <v>1123.492099268845</v>
       </c>
       <c r="J17">
-        <v>1439.115577082478</v>
+        <v>1439.16396003048</v>
       </c>
       <c r="K17">
-        <v>0.6362404808699642</v>
+        <v>0.6362371158210949</v>
       </c>
       <c r="N17">
-        <v>0.4639491404444746</v>
+        <v>0.4640366735723251</v>
       </c>
       <c r="O17">
-        <v>330.294884215006</v>
+        <v>330.2948895165187</v>
       </c>
       <c r="P17">
-        <v>1.000553293860609</v>
+        <v>1.000553277800882</v>
       </c>
       <c r="S17">
-        <v>36.59237084835874</v>
+        <v>36.59237857041573</v>
       </c>
       <c r="T17">
-        <v>5.800690055748253</v>
+        <v>5.801818176588867</v>
       </c>
       <c r="U17">
-        <v>42.393060904107</v>
+        <v>42.3941967470046</v>
       </c>
       <c r="V17" t="s">
         <v>125</v>
@@ -2748,52 +2748,52 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18">
-        <v>1453.78375010267</v>
+        <v>1453.783750099728</v>
       </c>
       <c r="D18">
-        <v>18630.31653299956</v>
+        <v>18630.31612127609</v>
       </c>
       <c r="E18">
-        <v>0.6334541517651634</v>
+        <v>0.6334541831647971</v>
       </c>
       <c r="G18">
         <v>0.00236</v>
       </c>
       <c r="H18">
-        <v>0.359800291788101</v>
+        <v>0.3598001655594433</v>
       </c>
       <c r="I18">
-        <v>1123.504434148279</v>
+        <v>1123.504428348834</v>
       </c>
       <c r="J18">
-        <v>1561.266754502366</v>
+        <v>1561.315936096431</v>
       </c>
       <c r="K18">
-        <v>0.6256081050121303</v>
+        <v>0.6256106603953535</v>
       </c>
       <c r="N18">
-        <v>0.4379839186598698</v>
+        <v>0.4380510121527733</v>
       </c>
       <c r="O18">
-        <v>330.2793159543903</v>
+        <v>330.2793217508934</v>
       </c>
       <c r="P18">
-        <v>1.000600456591323</v>
+        <v>1.000600439030479</v>
       </c>
       <c r="S18">
-        <v>36.88249656278084</v>
+        <v>36.88249855422497</v>
       </c>
       <c r="T18">
-        <v>5.874876886267745</v>
+        <v>5.875563660297731</v>
       </c>
       <c r="U18">
-        <v>42.75737344904859</v>
+        <v>42.7580622145227</v>
       </c>
       <c r="V18" t="s">
         <v>126</v>
@@ -2834,52 +2834,52 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="1">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19">
-        <v>1453.781309054975</v>
+        <v>1453.781309053594</v>
       </c>
       <c r="D19">
-        <v>18572.5223759776</v>
+        <v>18572.52277146685</v>
       </c>
       <c r="E19">
-        <v>0.6302962095159085</v>
+        <v>0.6302961755045813</v>
       </c>
       <c r="G19">
         <v>0.00237</v>
       </c>
       <c r="H19">
-        <v>0.3662548060948204</v>
+        <v>0.3662549422310952</v>
       </c>
       <c r="I19">
-        <v>1123.507436375682</v>
+        <v>1123.507432124149</v>
       </c>
       <c r="J19">
-        <v>1606.687065507245</v>
+        <v>1606.734010838099</v>
       </c>
       <c r="K19">
-        <v>0.6362948441069662</v>
+        <v>0.636291248476627</v>
       </c>
       <c r="N19">
-        <v>0.400855054857559</v>
+        <v>0.4009352301504068</v>
       </c>
       <c r="O19">
-        <v>330.2738726792925</v>
+        <v>330.2738769294449</v>
       </c>
       <c r="P19">
-        <v>1.000616947582585</v>
+        <v>1.000616934706076</v>
       </c>
       <c r="S19">
-        <v>36.95477256980453</v>
+        <v>36.95477865689188</v>
       </c>
       <c r="T19">
-        <v>6.093322676902577</v>
+        <v>6.093322336403418</v>
       </c>
       <c r="U19">
-        <v>43.04809524670711</v>
+        <v>43.04810099329529</v>
       </c>
       <c r="V19" t="s">
         <v>127</v>
@@ -2920,52 +2920,52 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="1">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20">
-        <v>1453.776775253729</v>
+        <v>1453.776775249614</v>
       </c>
       <c r="D20">
-        <v>18452.45753290452</v>
+        <v>18452.45785890206</v>
       </c>
       <c r="E20">
-        <v>0.633224200168945</v>
+        <v>0.6332241581317302</v>
       </c>
       <c r="G20">
         <v>0.00234</v>
       </c>
       <c r="H20">
-        <v>0.364404474070547</v>
+        <v>0.3644046253757366</v>
       </c>
       <c r="I20">
-        <v>1123.488799972966</v>
+        <v>1123.48879855276</v>
       </c>
       <c r="J20">
-        <v>1590.047298380265</v>
+        <v>1590.056558176669</v>
       </c>
       <c r="K20">
-        <v>0.6498534781218692</v>
+        <v>0.6498558892043927</v>
       </c>
       <c r="N20">
-        <v>0.444598225954246</v>
+        <v>0.4446058257279852</v>
       </c>
       <c r="O20">
-        <v>330.287975280763</v>
+        <v>330.2879766968535</v>
       </c>
       <c r="P20">
-        <v>1.000574223344669</v>
+        <v>1.000574219054766</v>
       </c>
       <c r="S20">
-        <v>36.43536935395434</v>
+        <v>36.43537608390672</v>
       </c>
       <c r="T20">
-        <v>6.733981151468502</v>
+        <v>6.733926402628029</v>
       </c>
       <c r="U20">
-        <v>43.16935050542284</v>
+        <v>43.16930248653475</v>
       </c>
       <c r="V20" t="s">
         <v>128</v>
@@ -3006,52 +3006,52 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="1">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21">
-        <v>1453.737751069187</v>
+        <v>1453.73775107745</v>
       </c>
       <c r="D21">
-        <v>18697.03652715604</v>
+        <v>18697.03747937848</v>
       </c>
       <c r="E21">
-        <v>0.6357060768288497</v>
+        <v>0.6357059797938975</v>
       </c>
       <c r="G21">
         <v>0.00244</v>
       </c>
       <c r="H21">
-        <v>0.3635556037543473</v>
+        <v>0.3635559702736475</v>
       </c>
       <c r="I21">
-        <v>1123.460606381586</v>
+        <v>1123.460606851173</v>
       </c>
       <c r="J21">
-        <v>1655.953479096446</v>
+        <v>1655.946648265945</v>
       </c>
       <c r="K21">
-        <v>0.6380154528885181</v>
+        <v>0.6380152528049047</v>
       </c>
       <c r="N21">
-        <v>0.4342218211285772</v>
+        <v>0.434212293020408</v>
       </c>
       <c r="O21">
-        <v>330.2771446876015</v>
+        <v>330.2771442262767</v>
       </c>
       <c r="P21">
-        <v>1.000607034613978</v>
+        <v>1.000607036011607</v>
       </c>
       <c r="S21">
-        <v>37.54921398501917</v>
+        <v>37.54920078485752</v>
       </c>
       <c r="T21">
-        <v>6.938297772941178</v>
+        <v>6.93825976585674</v>
       </c>
       <c r="U21">
-        <v>44.48751175796035</v>
+        <v>44.48746055071426</v>
       </c>
       <c r="V21" t="s">
         <v>129</v>
@@ -3092,52 +3092,52 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="1">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22">
-        <v>1453.73937644692</v>
+        <v>1453.739376453452</v>
       </c>
       <c r="D22">
-        <v>18288.45653645557</v>
+        <v>18288.45846411305</v>
       </c>
       <c r="E22">
-        <v>0.6378406009971822</v>
+        <v>0.637840462111642</v>
       </c>
       <c r="G22">
         <v>0.00254</v>
       </c>
       <c r="H22">
-        <v>0.3750925882533471</v>
+        <v>0.3750931834641644</v>
       </c>
       <c r="I22">
-        <v>1123.462141469342</v>
+        <v>1123.46214151552</v>
       </c>
       <c r="J22">
-        <v>1676.168032045359</v>
+        <v>1676.167619807982</v>
       </c>
       <c r="K22">
-        <v>0.6427764292907843</v>
+        <v>0.642776434633223</v>
       </c>
       <c r="N22">
-        <v>0.4329906356381548</v>
+        <v>0.4329900353937752</v>
       </c>
       <c r="O22">
-        <v>330.2772349775778</v>
+        <v>330.277234937932</v>
       </c>
       <c r="P22">
-        <v>1.000606761071706</v>
+        <v>1.000606761191817</v>
       </c>
       <c r="S22">
-        <v>37.93853755930085</v>
+        <v>37.93855703784446</v>
       </c>
       <c r="T22">
-        <v>6.329400773143334</v>
+        <v>6.329400347994989</v>
       </c>
       <c r="U22">
-        <v>44.26793833244418</v>
+        <v>44.26795738583945</v>
       </c>
       <c r="V22" t="s">
         <v>130</v>
@@ -3178,52 +3178,52 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
       <c r="C23">
-        <v>1453.738655303583</v>
+        <v>1453.738655311244</v>
       </c>
       <c r="D23">
-        <v>18569.11480707969</v>
+        <v>18569.11394470322</v>
       </c>
       <c r="E23">
-        <v>0.6390366651152466</v>
+        <v>0.6390365750511405</v>
       </c>
       <c r="G23">
         <v>0.00239</v>
       </c>
       <c r="H23">
-        <v>0.3621408938407862</v>
+        <v>0.3621410309202135</v>
       </c>
       <c r="I23">
-        <v>1123.458421788512</v>
+        <v>1123.458424934808</v>
       </c>
       <c r="J23">
-        <v>1646.035545389885</v>
+        <v>1645.999338161761</v>
       </c>
       <c r="K23">
-        <v>0.6386170666161995</v>
+        <v>0.63861800298427</v>
       </c>
       <c r="N23">
-        <v>0.4080146831322721</v>
+        <v>0.4079594547676894</v>
       </c>
       <c r="O23">
-        <v>330.2802335150704</v>
+        <v>330.2802303764361</v>
       </c>
       <c r="P23">
-        <v>1.000597676795434</v>
+        <v>1.000597686304057</v>
       </c>
       <c r="S23">
-        <v>36.50162598215653</v>
+        <v>36.50159434320183</v>
       </c>
       <c r="T23">
-        <v>6.764494220543468</v>
+        <v>6.763724902213125</v>
       </c>
       <c r="U23">
-        <v>43.2661202027</v>
+        <v>43.26531924541496</v>
       </c>
       <c r="V23" t="s">
         <v>131</v>
@@ -3264,52 +3264,52 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
       </c>
       <c r="C24">
-        <v>1453.740553624805</v>
+        <v>1453.740553645425</v>
       </c>
       <c r="D24">
-        <v>18495.41678129079</v>
+        <v>18495.4351100628</v>
       </c>
       <c r="E24">
-        <v>0.6403017540129977</v>
+        <v>0.6403016130609793</v>
       </c>
       <c r="G24">
         <v>0.00226</v>
       </c>
       <c r="H24">
-        <v>0.3561824803051608</v>
+        <v>0.3561850064184325</v>
       </c>
       <c r="I24">
-        <v>1123.46169520943</v>
+        <v>1123.461687492475</v>
       </c>
       <c r="J24">
-        <v>1626.81197522141</v>
+        <v>1626.880842077587</v>
       </c>
       <c r="K24">
-        <v>0.6523079929107958</v>
+        <v>0.6523112097457038</v>
       </c>
       <c r="N24">
-        <v>0.3812698880519109</v>
+        <v>0.3813640164162502</v>
       </c>
       <c r="O24">
-        <v>330.2788584153745</v>
+        <v>330.2788661529505</v>
       </c>
       <c r="P24">
-        <v>1.000601842734385</v>
+        <v>1.000601819292883</v>
       </c>
       <c r="S24">
-        <v>34.44410818073643</v>
+        <v>34.44429681160523</v>
       </c>
       <c r="T24">
-        <v>5.432624486836371</v>
+        <v>5.432832342046397</v>
       </c>
       <c r="U24">
-        <v>39.8767326675728</v>
+        <v>39.87712915365163</v>
       </c>
       <c r="V24" t="s">
         <v>132</v>
@@ -3350,52 +3350,52 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
       </c>
       <c r="C25">
-        <v>1453.738660369048</v>
+        <v>1453.73866037546</v>
       </c>
       <c r="D25">
-        <v>18684.96709481334</v>
+        <v>18684.9674010454</v>
       </c>
       <c r="E25">
-        <v>0.6411998119140437</v>
+        <v>0.6411997645734314</v>
       </c>
       <c r="G25">
         <v>0.0024</v>
       </c>
       <c r="H25">
-        <v>0.3563307143087471</v>
+        <v>0.3563308765171355</v>
       </c>
       <c r="I25">
-        <v>1123.458728897189</v>
+        <v>1123.458724804451</v>
       </c>
       <c r="J25">
-        <v>1644.339299226318</v>
+        <v>1644.386506427853</v>
       </c>
       <c r="K25">
-        <v>0.636297122903121</v>
+        <v>0.6362971947602367</v>
       </c>
       <c r="N25">
-        <v>0.3992381565628276</v>
+        <v>0.3993079624911315</v>
       </c>
       <c r="O25">
-        <v>330.2799314718591</v>
+        <v>330.2799355710092</v>
       </c>
       <c r="P25">
-        <v>1.000598591848717</v>
+        <v>1.000598579430149</v>
       </c>
       <c r="S25">
-        <v>36.44584317532709</v>
+        <v>36.44584162027105</v>
       </c>
       <c r="T25">
-        <v>6.507555643684634</v>
+        <v>6.507932394973195</v>
       </c>
       <c r="U25">
-        <v>42.95339881901172</v>
+        <v>42.95377401524425</v>
       </c>
       <c r="V25" t="s">
         <v>133</v>
@@ -3436,52 +3436,52 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26">
-        <v>1453.737002435638</v>
+        <v>1453.737002665839</v>
       </c>
       <c r="D26">
-        <v>18494.59855443254</v>
+        <v>18494.64016552515</v>
       </c>
       <c r="E26">
-        <v>0.6427378170626856</v>
+        <v>0.6427367505953204</v>
       </c>
       <c r="G26">
         <v>0.00238</v>
       </c>
       <c r="H26">
-        <v>0.3553493182212316</v>
+        <v>0.3553570705522187</v>
       </c>
       <c r="I26">
-        <v>1123.461668554178</v>
+        <v>1123.461668146991</v>
       </c>
       <c r="J26">
-        <v>1659.564866014573</v>
+        <v>1659.576844761835</v>
       </c>
       <c r="K26">
-        <v>0.6375576318556826</v>
+        <v>0.6375499420621628</v>
       </c>
       <c r="N26">
-        <v>0.4246853417389549</v>
+        <v>0.4247203726327782</v>
       </c>
       <c r="O26">
-        <v>330.2753338814603</v>
+        <v>330.2753345188478</v>
       </c>
       <c r="P26">
-        <v>1.000612520659037</v>
+        <v>1.000612518727987</v>
       </c>
       <c r="S26">
-        <v>35.44081960770708</v>
+        <v>35.44108812869199</v>
       </c>
       <c r="T26">
-        <v>5.520011673199589</v>
+        <v>5.520034902242132</v>
       </c>
       <c r="U26">
-        <v>40.96083128090667</v>
+        <v>40.96112303093413</v>
       </c>
       <c r="V26" t="s">
         <v>134</v>
@@ -3522,52 +3522,52 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27">
-        <v>1453.740852733863</v>
+        <v>1453.740852721056</v>
       </c>
       <c r="D27">
-        <v>19150.70887602878</v>
+        <v>19150.70685184481</v>
       </c>
       <c r="E27">
-        <v>0.6360338870069471</v>
+        <v>0.636034061575981</v>
       </c>
       <c r="G27">
         <v>0.0025</v>
       </c>
       <c r="H27">
-        <v>0.3716737699354173</v>
+        <v>0.3716730784980711</v>
       </c>
       <c r="I27">
-        <v>1123.454998738816</v>
+        <v>1123.454988199766</v>
       </c>
       <c r="J27">
-        <v>1688.251316523065</v>
+        <v>1688.380429190626</v>
       </c>
       <c r="K27">
-        <v>0.6360847833350615</v>
+        <v>0.6360760773305439</v>
       </c>
       <c r="N27">
-        <v>0.4371188315766568</v>
+        <v>0.437322948731847</v>
       </c>
       <c r="O27">
-        <v>330.2858539950464</v>
+        <v>330.2858645212896</v>
       </c>
       <c r="P27">
-        <v>1.000580649607807</v>
+        <v>1.000580617719203</v>
       </c>
       <c r="S27">
-        <v>39.06553302846157</v>
+        <v>39.06555438349822</v>
       </c>
       <c r="T27">
-        <v>7.003295404176072</v>
+        <v>7.00402691419991</v>
       </c>
       <c r="U27">
-        <v>46.06882843263764</v>
+        <v>46.06958129769814</v>
       </c>
       <c r="V27" t="s">
         <v>135</v>
@@ -3608,52 +3608,52 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
       </c>
       <c r="C28">
-        <v>1453.745460303068</v>
+        <v>1453.745460296296</v>
       </c>
       <c r="D28">
-        <v>20158.79486598538</v>
+        <v>20158.79496347053</v>
       </c>
       <c r="E28">
-        <v>0.6403939289045483</v>
+        <v>0.6403939625062497</v>
       </c>
       <c r="G28">
         <v>0.00238</v>
       </c>
       <c r="H28">
-        <v>0.3518245003731761</v>
+        <v>0.3518244171784917</v>
       </c>
       <c r="I28">
-        <v>1123.458727541202</v>
+        <v>1123.45872793033</v>
       </c>
       <c r="J28">
-        <v>1675.417886798446</v>
+        <v>1675.412061299034</v>
       </c>
       <c r="K28">
-        <v>0.6498846155736234</v>
+        <v>0.649885093598368</v>
       </c>
       <c r="N28">
-        <v>0.4013553158380493</v>
+        <v>0.4013456684829963</v>
       </c>
       <c r="O28">
-        <v>330.2867327618662</v>
+        <v>330.2867323659657</v>
       </c>
       <c r="P28">
-        <v>1.00057798744494</v>
+        <v>1.00057798864429</v>
       </c>
       <c r="S28">
-        <v>39.0550017899522</v>
+        <v>39.05500593174397</v>
       </c>
       <c r="T28">
-        <v>5.652946416043388</v>
+        <v>5.652987203490246</v>
       </c>
       <c r="U28">
-        <v>44.70794820599559</v>
+        <v>44.70799313523422</v>
       </c>
       <c r="V28" t="s">
         <v>136</v>
@@ -3694,52 +3694,52 @@
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="C29">
-        <v>1453.742003170541</v>
+        <v>1453.742003190631</v>
       </c>
       <c r="D29">
-        <v>19418.47565838273</v>
+        <v>19418.47734309192</v>
       </c>
       <c r="E29">
-        <v>0.6387031917630164</v>
+        <v>0.6387030297250376</v>
       </c>
       <c r="G29">
         <v>0.00242</v>
       </c>
       <c r="H29">
-        <v>0.3641964430523385</v>
+        <v>0.3641970558611853</v>
       </c>
       <c r="I29">
-        <v>1123.447200026948</v>
+        <v>1123.447195777465</v>
       </c>
       <c r="J29">
-        <v>1690.151667179892</v>
+        <v>1690.207276342964</v>
       </c>
       <c r="K29">
-        <v>0.638161134627858</v>
+        <v>0.6381549481990811</v>
       </c>
       <c r="N29">
-        <v>0.3842250381885945</v>
+        <v>0.3843214811472281</v>
       </c>
       <c r="O29">
-        <v>330.2948031435933</v>
+        <v>330.2948074131659</v>
       </c>
       <c r="P29">
-        <v>1.000553539448091</v>
+        <v>1.000553526514385</v>
       </c>
       <c r="S29">
-        <v>38.27660527769946</v>
+        <v>38.27660230814617</v>
       </c>
       <c r="T29">
-        <v>8.36525898911086</v>
+        <v>8.366725986763655</v>
       </c>
       <c r="U29">
-        <v>46.64186426681032</v>
+        <v>46.64332829490982</v>
       </c>
       <c r="V29" t="s">
         <v>137</v>
@@ -3780,52 +3780,52 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30">
-        <v>1453.743555867575</v>
+        <v>1453.743555860909</v>
       </c>
       <c r="D30">
-        <v>20886.2739509932</v>
+        <v>20886.2704388602</v>
       </c>
       <c r="E30">
-        <v>0.636783436375153</v>
+        <v>0.6367836192465512</v>
       </c>
       <c r="G30">
         <v>0.00239</v>
       </c>
       <c r="H30">
-        <v>0.3570301716350174</v>
+        <v>0.3570293179268914</v>
       </c>
       <c r="I30">
-        <v>1123.470942247831</v>
+        <v>1123.470947915559</v>
       </c>
       <c r="J30">
-        <v>1688.392641732298</v>
+        <v>1688.33430634484</v>
       </c>
       <c r="K30">
-        <v>0.6525013847723985</v>
+        <v>0.6525003615373068</v>
       </c>
       <c r="N30">
-        <v>0.3843667146607576</v>
+        <v>0.3842850175686113</v>
       </c>
       <c r="O30">
-        <v>330.2726136197448</v>
+        <v>330.2726079453498</v>
       </c>
       <c r="P30">
-        <v>1.000620762117213</v>
+        <v>1.000620779308822</v>
       </c>
       <c r="S30">
-        <v>40.87740368915067</v>
+        <v>40.87737156824303</v>
       </c>
       <c r="T30">
-        <v>5.459124036199286</v>
+        <v>5.459039059545483</v>
       </c>
       <c r="U30">
-        <v>46.33652772534995</v>
+        <v>46.33641062778852</v>
       </c>
       <c r="V30" t="s">
         <v>138</v>
@@ -3866,52 +3866,52 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31">
-        <v>1453.737759874672</v>
+        <v>1453.737759896571</v>
       </c>
       <c r="D31">
-        <v>18991.16404774029</v>
+        <v>18991.16552212264</v>
       </c>
       <c r="E31">
-        <v>0.641515034617043</v>
+        <v>0.6415149303703758</v>
       </c>
       <c r="G31">
         <v>0.00261</v>
       </c>
       <c r="H31">
-        <v>0.3643128201551961</v>
+        <v>0.3643132612682989</v>
       </c>
       <c r="I31">
-        <v>1123.458368947649</v>
+        <v>1123.458368747605</v>
       </c>
       <c r="J31">
-        <v>1761.017113304775</v>
+        <v>1761.020904559934</v>
       </c>
       <c r="K31">
-        <v>0.6399960290425339</v>
+        <v>0.6399956843717315</v>
       </c>
       <c r="N31">
-        <v>0.4233920711842523</v>
+        <v>0.4233980926158432</v>
       </c>
       <c r="O31">
-        <v>330.2793909270226</v>
+        <v>330.2793911489659</v>
       </c>
       <c r="P31">
-        <v>1.000600229457411</v>
+        <v>1.000600228785021</v>
       </c>
       <c r="S31">
-        <v>39.59707027058516</v>
+        <v>39.59707161955739</v>
       </c>
       <c r="T31">
-        <v>7.122012774209171</v>
+        <v>7.122035432543965</v>
       </c>
       <c r="U31">
-        <v>46.71908304479433</v>
+        <v>46.71910705210136</v>
       </c>
       <c r="V31" t="s">
         <v>139</v>
@@ -3952,52 +3952,52 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
       <c r="C32">
-        <v>1453.738431061239</v>
+        <v>1453.738431080018</v>
       </c>
       <c r="D32">
-        <v>18879.44239349053</v>
+        <v>18879.44534253461</v>
       </c>
       <c r="E32">
-        <v>0.6381730903113569</v>
+        <v>0.6381729103320983</v>
       </c>
       <c r="G32">
         <v>0.00256</v>
       </c>
       <c r="H32">
-        <v>0.3685455916227928</v>
+        <v>0.3685464071306862</v>
       </c>
       <c r="I32">
-        <v>1123.454920866838</v>
+        <v>1123.454922770807</v>
       </c>
       <c r="J32">
-        <v>1729.370928109326</v>
+        <v>1729.339257380252</v>
       </c>
       <c r="K32">
-        <v>0.6457726815407789</v>
+        <v>0.6457745599015159</v>
       </c>
       <c r="N32">
-        <v>0.3866398768794472</v>
+        <v>0.3865899560942471</v>
       </c>
       <c r="O32">
-        <v>330.2835101944008</v>
+        <v>330.2835083092116</v>
       </c>
       <c r="P32">
-        <v>1.000587750057875</v>
+        <v>1.000587755769021</v>
       </c>
       <c r="S32">
-        <v>38.74811889846542</v>
+        <v>38.7481096002211</v>
       </c>
       <c r="T32">
-        <v>5.926383405784844</v>
+        <v>5.926158362138431</v>
       </c>
       <c r="U32">
-        <v>44.67450230425027</v>
+        <v>44.67426796235953</v>
       </c>
       <c r="V32" t="s">
         <v>140</v>
@@ -4038,52 +4038,52 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33">
-        <v>1453.7413184793</v>
+        <v>1453.741318483434</v>
       </c>
       <c r="D33">
-        <v>18223.88915384716</v>
+        <v>18223.88989500808</v>
       </c>
       <c r="E33">
-        <v>0.6404385389945229</v>
+        <v>0.6404384954704703</v>
       </c>
       <c r="G33">
         <v>0.00243</v>
       </c>
       <c r="H33">
-        <v>0.3693560102553102</v>
+        <v>0.3693562173975396</v>
       </c>
       <c r="I33">
-        <v>1123.469409284622</v>
+        <v>1123.469409853838</v>
       </c>
       <c r="J33">
-        <v>1709.48685685169</v>
+        <v>1709.479571761749</v>
       </c>
       <c r="K33">
-        <v>0.6379743785646153</v>
+        <v>0.6379747305292093</v>
       </c>
       <c r="N33">
-        <v>0.3818605100102308</v>
+        <v>0.3818493624541517</v>
       </c>
       <c r="O33">
-        <v>330.2719091946778</v>
+        <v>330.2719086295954</v>
       </c>
       <c r="P33">
-        <v>1.000622896305219</v>
+        <v>1.000622898017246</v>
       </c>
       <c r="S33">
-        <v>35.54793851088677</v>
+        <v>35.54793734453314</v>
       </c>
       <c r="T33">
-        <v>6.202101597904498</v>
+        <v>6.202085034926744</v>
       </c>
       <c r="U33">
-        <v>41.75004010879127</v>
+        <v>41.75002237945989</v>
       </c>
       <c r="V33" t="s">
         <v>141</v>
@@ -4124,52 +4124,52 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34">
-        <v>1453.73961095255</v>
+        <v>1453.739610963311</v>
       </c>
       <c r="D34">
-        <v>18629.21301391787</v>
+        <v>18629.21458136037</v>
       </c>
       <c r="E34">
-        <v>0.6405642572243612</v>
+        <v>0.640564166161637</v>
       </c>
       <c r="G34">
         <v>0.00246</v>
       </c>
       <c r="H34">
-        <v>0.3667630388777471</v>
+        <v>0.3667634676023713</v>
       </c>
       <c r="I34">
-        <v>1123.455631526441</v>
+        <v>1123.455629966514</v>
       </c>
       <c r="J34">
-        <v>1791.803909347982</v>
+        <v>1791.763060371588</v>
       </c>
       <c r="K34">
-        <v>0.633548197513281</v>
+        <v>0.6335606853884286</v>
       </c>
       <c r="N34">
-        <v>0.4882791190557335</v>
+        <v>0.4881945423337679</v>
       </c>
       <c r="O34">
-        <v>330.2839794261097</v>
+        <v>330.2839809967975</v>
       </c>
       <c r="P34">
-        <v>1.000586328531162</v>
+        <v>1.000586323772806</v>
       </c>
       <c r="S34">
-        <v>37.22954396917437</v>
+        <v>37.22954287336463</v>
       </c>
       <c r="T34">
-        <v>6.610922753190225</v>
+        <v>6.610326948204199</v>
       </c>
       <c r="U34">
-        <v>43.8404667223646</v>
+        <v>43.83986982156883</v>
       </c>
       <c r="V34" t="s">
         <v>142</v>
@@ -4210,52 +4210,52 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
       </c>
       <c r="C35">
-        <v>1453.738566793948</v>
+        <v>1453.738566803127</v>
       </c>
       <c r="D35">
-        <v>18669.51066280139</v>
+        <v>18669.51145434423</v>
       </c>
       <c r="E35">
-        <v>0.6386674248941377</v>
+        <v>0.6386673390145148</v>
       </c>
       <c r="G35">
         <v>0.00246</v>
       </c>
       <c r="H35">
-        <v>0.3720120119855087</v>
+        <v>0.3720123293482547</v>
       </c>
       <c r="I35">
-        <v>1123.460594290881</v>
+        <v>1123.460594178305</v>
       </c>
       <c r="J35">
-        <v>1742.354752560941</v>
+        <v>1742.356359073385</v>
       </c>
       <c r="K35">
-        <v>0.6501536839378692</v>
+        <v>0.6501536333569539</v>
       </c>
       <c r="N35">
-        <v>0.3817460462685563</v>
+        <v>0.3817484509563026</v>
       </c>
       <c r="O35">
-        <v>330.2779725030673</v>
+        <v>330.277972624823</v>
       </c>
       <c r="P35">
-        <v>1.00060452667204</v>
+        <v>1.000604526303172</v>
       </c>
       <c r="S35">
-        <v>36.89040448891509</v>
+        <v>36.89039336527933</v>
       </c>
       <c r="T35">
-        <v>5.837937131517069</v>
+        <v>5.837985334613959</v>
       </c>
       <c r="U35">
-        <v>42.72834162043216</v>
+        <v>42.72837869989329</v>
       </c>
       <c r="V35" t="s">
         <v>143</v>
@@ -4296,52 +4296,52 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36">
-        <v>1453.739434929426</v>
+        <v>1453.739434935158</v>
       </c>
       <c r="D36">
-        <v>18166.7838466572</v>
+        <v>18166.7855043674</v>
       </c>
       <c r="E36">
-        <v>0.6406171573805367</v>
+        <v>0.6406170837030672</v>
       </c>
       <c r="G36">
         <v>0.00251</v>
       </c>
       <c r="H36">
-        <v>0.3695182119032023</v>
+        <v>0.3695186092841876</v>
       </c>
       <c r="I36">
-        <v>1123.464832864229</v>
+        <v>1123.464827848005</v>
       </c>
       <c r="J36">
-        <v>1725.251735680329</v>
+        <v>1725.306866571046</v>
       </c>
       <c r="K36">
-        <v>0.6370515094658867</v>
+        <v>0.6370507392243671</v>
       </c>
       <c r="N36">
-        <v>0.3783926721625462</v>
+        <v>0.3784720017336598</v>
       </c>
       <c r="O36">
-        <v>330.2746020651975</v>
+        <v>330.2746070871531</v>
       </c>
       <c r="P36">
-        <v>1.000614737797474</v>
+        <v>1.000614722582733</v>
       </c>
       <c r="S36">
-        <v>36.3856382280565</v>
+        <v>36.38565257207384</v>
       </c>
       <c r="T36">
-        <v>7.590917537266924</v>
+        <v>7.592007449797196</v>
       </c>
       <c r="U36">
-        <v>43.97655576532343</v>
+        <v>43.97766002187104</v>
       </c>
       <c r="V36" t="s">
         <v>144</v>
@@ -4382,52 +4382,52 @@
     </row>
     <row r="37" spans="1:34">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>68</v>
       </c>
       <c r="C37">
-        <v>1453.735503652332</v>
+        <v>1453.735503663641</v>
       </c>
       <c r="D37">
-        <v>18668.96623225063</v>
+        <v>18668.96682415135</v>
       </c>
       <c r="E37">
-        <v>0.6397996211941527</v>
+        <v>0.6397995200522486</v>
       </c>
       <c r="G37">
         <v>0.00245</v>
       </c>
       <c r="H37">
-        <v>0.3651626077198131</v>
+        <v>0.3651629395321497</v>
       </c>
       <c r="I37">
-        <v>1123.460584166848</v>
+        <v>1123.460583630991</v>
       </c>
       <c r="J37">
-        <v>1762.519143666567</v>
+        <v>1762.525959372558</v>
       </c>
       <c r="K37">
-        <v>0.6498656926884213</v>
+        <v>0.6498657168677647</v>
       </c>
       <c r="N37">
-        <v>0.3819647086765068</v>
+        <v>0.3819740708764972</v>
       </c>
       <c r="O37">
-        <v>330.2749194854841</v>
+        <v>330.2749200326505</v>
       </c>
       <c r="P37">
-        <v>1.000613776127671</v>
+        <v>1.000613774469955</v>
       </c>
       <c r="S37">
-        <v>36.66131058324368</v>
+        <v>36.6612944532021</v>
       </c>
       <c r="T37">
-        <v>7.517340931186615</v>
+        <v>7.51752042466079</v>
       </c>
       <c r="U37">
-        <v>44.1786515144303</v>
+        <v>44.17881487786289</v>
       </c>
       <c r="V37" t="s">
         <v>145</v>
@@ -4468,52 +4468,52 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
       </c>
       <c r="C38">
-        <v>1453.736690308027</v>
+        <v>1453.736690315224</v>
       </c>
       <c r="D38">
-        <v>18351.16075369099</v>
+        <v>18351.1610079807</v>
       </c>
       <c r="E38">
-        <v>0.6397071971196276</v>
+        <v>0.6397071548246022</v>
       </c>
       <c r="G38">
         <v>0.00245</v>
       </c>
       <c r="H38">
-        <v>0.3683429994278478</v>
+        <v>0.3683431403798139</v>
       </c>
       <c r="I38">
-        <v>1123.457776238313</v>
+        <v>1123.457776719599</v>
       </c>
       <c r="J38">
-        <v>1737.448203356123</v>
+        <v>1737.443040676707</v>
       </c>
       <c r="K38">
-        <v>0.6420000178347419</v>
+        <v>0.6420005138166532</v>
       </c>
       <c r="N38">
-        <v>0.3999083010956431</v>
+        <v>0.3998998518483278</v>
       </c>
       <c r="O38">
-        <v>330.2789140697134</v>
+        <v>330.278913595625</v>
       </c>
       <c r="P38">
-        <v>1.00060167412588</v>
+        <v>1.000601675562162</v>
       </c>
       <c r="S38">
-        <v>35.79990799817239</v>
+        <v>35.79990544913402</v>
       </c>
       <c r="T38">
-        <v>6.306500813035973</v>
+        <v>6.306363202127008</v>
       </c>
       <c r="U38">
-        <v>42.10640881120837</v>
+        <v>42.10626865126103</v>
       </c>
       <c r="V38" t="s">
         <v>146</v>
@@ -4554,52 +4554,52 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39">
-        <v>1453.734652864699</v>
+        <v>1453.73465288152</v>
       </c>
       <c r="D39">
-        <v>19193.81689664927</v>
+        <v>19193.81893124843</v>
       </c>
       <c r="E39">
-        <v>0.6391469189086494</v>
+        <v>0.6391467819407706</v>
       </c>
       <c r="G39">
         <v>0.00252</v>
       </c>
       <c r="H39">
-        <v>0.3589787399304637</v>
+        <v>0.3589793293654308</v>
       </c>
       <c r="I39">
-        <v>1123.4646862197</v>
+        <v>1123.464686466615</v>
       </c>
       <c r="J39">
-        <v>1752.193088333733</v>
+        <v>1752.190290718716</v>
       </c>
       <c r="K39">
-        <v>0.6551579336990485</v>
+        <v>0.6551581705020401</v>
       </c>
       <c r="N39">
-        <v>0.3583946125857992</v>
+        <v>0.3583890031087697</v>
       </c>
       <c r="O39">
-        <v>330.2699666449994</v>
+        <v>330.2699664149054</v>
       </c>
       <c r="P39">
-        <v>1.000628781671379</v>
+        <v>1.000628782368502</v>
       </c>
       <c r="S39">
-        <v>39.37457967041497</v>
+        <v>39.37458405614138</v>
       </c>
       <c r="T39">
-        <v>6.174417171466999</v>
+        <v>6.174269964294757</v>
       </c>
       <c r="U39">
-        <v>45.54899684188197</v>
+        <v>45.54885402043614</v>
       </c>
       <c r="V39" t="s">
         <v>147</v>
@@ -4640,52 +4640,52 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="1">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
       <c r="C40">
-        <v>1453.73416290507</v>
+        <v>1453.734162914384</v>
       </c>
       <c r="D40">
-        <v>18659.54269092011</v>
+        <v>18659.54395152058</v>
       </c>
       <c r="E40">
-        <v>0.6399512973590241</v>
+        <v>0.6399511821952573</v>
       </c>
       <c r="G40">
         <v>0.00258</v>
       </c>
       <c r="H40">
-        <v>0.3746360780088093</v>
+        <v>0.3746365249642707</v>
       </c>
       <c r="I40">
-        <v>1123.453299769762</v>
+        <v>1123.453297767456</v>
       </c>
       <c r="J40">
-        <v>1728.836712174128</v>
+        <v>1728.860159360447</v>
       </c>
       <c r="K40">
-        <v>0.6376812363563157</v>
+        <v>0.6376817193466986</v>
       </c>
       <c r="N40">
-        <v>0.3943877821599327</v>
+        <v>0.3944199077935307</v>
       </c>
       <c r="O40">
-        <v>330.2808631353084</v>
+        <v>330.2808651469279</v>
       </c>
       <c r="P40">
-        <v>1.000595769338424</v>
+        <v>1.000595763244163</v>
       </c>
       <c r="S40">
-        <v>38.08366564487868</v>
+        <v>38.08365266818282</v>
       </c>
       <c r="T40">
-        <v>6.585307958245938</v>
+        <v>6.585409929930505</v>
       </c>
       <c r="U40">
-        <v>44.66897360312461</v>
+        <v>44.66906259811333</v>
       </c>
       <c r="V40" t="s">
         <v>148</v>
@@ -4726,52 +4726,52 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
       </c>
       <c r="C41">
-        <v>1453.735965925207</v>
+        <v>1453.735965947825</v>
       </c>
       <c r="D41">
-        <v>19389.55952013073</v>
+        <v>19389.56251182578</v>
       </c>
       <c r="E41">
-        <v>0.6408094681856873</v>
+        <v>0.6408093430667287</v>
       </c>
       <c r="G41">
         <v>0.00243</v>
       </c>
       <c r="H41">
-        <v>0.3519709816403719</v>
+        <v>0.3519716426080026</v>
       </c>
       <c r="I41">
-        <v>1123.458915077363</v>
+        <v>1123.458914509643</v>
       </c>
       <c r="J41">
-        <v>1704.154590008085</v>
+        <v>1704.161274707954</v>
       </c>
       <c r="K41">
-        <v>0.6366894628591205</v>
+        <v>0.636687309011875</v>
       </c>
       <c r="N41">
-        <v>0.3913314712175263</v>
+        <v>0.3913462581511846</v>
       </c>
       <c r="O41">
-        <v>330.2770508478432</v>
+        <v>330.2770514381818</v>
       </c>
       <c r="P41">
-        <v>1.00060731891082</v>
+        <v>1.00060731712233</v>
       </c>
       <c r="S41">
-        <v>37.91548750541778</v>
+        <v>37.91549867406486</v>
       </c>
       <c r="T41">
-        <v>7.427158933919962</v>
+        <v>7.427228211319646</v>
       </c>
       <c r="U41">
-        <v>45.34264643933774</v>
+        <v>45.3427268853845</v>
       </c>
       <c r="V41" t="s">
         <v>149</v>
@@ -4812,52 +4812,52 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
       <c r="C42">
-        <v>1453.736825057609</v>
+        <v>1453.73682507813</v>
       </c>
       <c r="D42">
-        <v>19221.6555096708</v>
+        <v>19221.65670967811</v>
       </c>
       <c r="E42">
-        <v>0.6399961681906092</v>
+        <v>0.6399960728857658</v>
       </c>
       <c r="G42">
         <v>0.00242</v>
       </c>
       <c r="H42">
-        <v>0.3572157836841265</v>
+        <v>0.3572161708215383</v>
       </c>
       <c r="I42">
-        <v>1123.450861396917</v>
+        <v>1123.450864255432</v>
       </c>
       <c r="J42">
-        <v>1716.801139405501</v>
+        <v>1716.758713359258</v>
       </c>
       <c r="K42">
-        <v>0.6419747864278774</v>
+        <v>0.6419838669584762</v>
       </c>
       <c r="N42">
-        <v>0.3828085807489538</v>
+        <v>0.3827250985069419</v>
       </c>
       <c r="O42">
-        <v>330.2859636606922</v>
+        <v>330.2859608226984</v>
       </c>
       <c r="P42">
-        <v>1.000580317382598</v>
+        <v>1.00058032598012</v>
       </c>
       <c r="S42">
-        <v>38.34948685526506</v>
+        <v>38.34948562024935</v>
       </c>
       <c r="T42">
-        <v>7.144359799247847</v>
+        <v>7.143567515748337</v>
       </c>
       <c r="U42">
-        <v>45.49384665451291</v>
+        <v>45.49305313599768</v>
       </c>
       <c r="V42" t="s">
         <v>150</v>
@@ -4898,52 +4898,52 @@
     </row>
     <row r="43" spans="1:34">
       <c r="A43" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43">
-        <v>1453.738300647616</v>
+        <v>1453.738300668051</v>
       </c>
       <c r="D43">
-        <v>19281.19812566733</v>
+        <v>19281.20088165096</v>
       </c>
       <c r="E43">
-        <v>0.64123414579313</v>
+        <v>0.6412339708134065</v>
       </c>
       <c r="G43">
         <v>0.00245</v>
       </c>
       <c r="H43">
-        <v>0.3575404957905916</v>
+        <v>0.3575412700871828</v>
       </c>
       <c r="I43">
-        <v>1123.465085195565</v>
+        <v>1123.465092320309</v>
       </c>
       <c r="J43">
-        <v>1778.422249868598</v>
+        <v>1778.329306754464</v>
       </c>
       <c r="K43">
-        <v>0.6455552200206374</v>
+        <v>0.6455644554492332</v>
       </c>
       <c r="N43">
-        <v>0.4249883421490849</v>
+        <v>0.4248396900586177</v>
       </c>
       <c r="O43">
-        <v>330.2732154520506</v>
+        <v>330.2732083477417</v>
       </c>
       <c r="P43">
-        <v>1.000618938760451</v>
+        <v>1.000618960284165</v>
       </c>
       <c r="S43">
-        <v>38.58055890106292</v>
+        <v>38.5805506159518</v>
       </c>
       <c r="T43">
-        <v>7.963470521397285</v>
+        <v>7.962942565551979</v>
       </c>
       <c r="U43">
-        <v>46.54402942246021</v>
+        <v>46.54349318150378</v>
       </c>
       <c r="V43" t="s">
         <v>151</v>
@@ -4984,52 +4984,52 @@
     </row>
     <row r="44" spans="1:34">
       <c r="A44" s="1">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>75</v>
       </c>
       <c r="C44">
-        <v>1453.735055350468</v>
+        <v>1453.735055346313</v>
       </c>
       <c r="D44">
-        <v>19746.04886204111</v>
+        <v>19746.04739513003</v>
       </c>
       <c r="E44">
-        <v>0.6382556092299116</v>
+        <v>0.6382556814746984</v>
       </c>
       <c r="G44">
         <v>0.00248</v>
       </c>
       <c r="H44">
-        <v>0.3646779792974265</v>
+        <v>0.3646776220993351</v>
       </c>
       <c r="I44">
-        <v>1123.471426727446</v>
+        <v>1123.471421033881</v>
       </c>
       <c r="J44">
-        <v>1735.492084714301</v>
+        <v>1735.568345714825</v>
       </c>
       <c r="K44">
-        <v>0.646726778682958</v>
+        <v>0.6467228552957404</v>
       </c>
       <c r="N44">
-        <v>0.3477447912754598</v>
+        <v>0.3478635800868016</v>
       </c>
       <c r="O44">
-        <v>330.263628623022</v>
+        <v>330.2636343124316</v>
       </c>
       <c r="P44">
-        <v>1.000647984534365</v>
+        <v>1.000647967296329</v>
       </c>
       <c r="S44">
-        <v>40.29859651846012</v>
+        <v>40.29858455359906</v>
       </c>
       <c r="T44">
-        <v>6.808962573139279</v>
+        <v>6.809458399559269</v>
       </c>
       <c r="U44">
-        <v>47.1075590915994</v>
+        <v>47.10804295315832</v>
       </c>
       <c r="V44" t="s">
         <v>152</v>
@@ -5070,52 +5070,52 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
       </c>
       <c r="C45">
-        <v>1453.736723993291</v>
+        <v>1453.736723993024</v>
       </c>
       <c r="D45">
-        <v>18510.93336735301</v>
+        <v>18510.92809619255</v>
       </c>
       <c r="E45">
-        <v>0.6379722054578857</v>
+        <v>0.637972128654774</v>
       </c>
       <c r="G45">
-        <v>0.00237</v>
+        <v>0.00238</v>
       </c>
       <c r="H45">
-        <v>0.3680923227739337</v>
+        <v>0.3680919070692401</v>
       </c>
       <c r="I45">
-        <v>1123.463481155906</v>
+        <v>1123.463481823904</v>
       </c>
       <c r="J45">
-        <v>1751.196026712054</v>
+        <v>1751.185920955618</v>
       </c>
       <c r="K45">
-        <v>0.6332195322319947</v>
+        <v>0.6332176117409947</v>
       </c>
       <c r="N45">
-        <v>0.4378016523239843</v>
+        <v>0.4377921290572183</v>
       </c>
       <c r="O45">
-        <v>330.2732428373849</v>
+        <v>330.2732421691196</v>
       </c>
       <c r="P45">
-        <v>1.000618855791925</v>
+        <v>1.000618857816549</v>
       </c>
       <c r="S45">
-        <v>35.18405262800562</v>
+        <v>35.18396884946028</v>
       </c>
       <c r="T45">
-        <v>7.792274929481964</v>
+        <v>7.792183835649608</v>
       </c>
       <c r="U45">
-        <v>42.97632755748759</v>
+        <v>42.97615268510989</v>
       </c>
       <c r="V45" t="s">
         <v>153</v>
@@ -5156,52 +5156,52 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
       </c>
       <c r="C46">
-        <v>1453.736720668936</v>
+        <v>1453.736720676146</v>
       </c>
       <c r="D46">
-        <v>18391.15433499637</v>
+        <v>18391.15498763144</v>
       </c>
       <c r="E46">
-        <v>0.640187987227529</v>
+        <v>0.6401879175392938</v>
       </c>
       <c r="G46">
         <v>0.00254</v>
       </c>
       <c r="H46">
-        <v>0.3776459540046212</v>
+        <v>0.3776462133311871</v>
       </c>
       <c r="I46">
-        <v>1123.464642782642</v>
+        <v>1123.46464293319</v>
       </c>
       <c r="J46">
-        <v>1751.630775124286</v>
+        <v>1751.632509683235</v>
       </c>
       <c r="K46">
-        <v>0.6324914070658206</v>
+        <v>0.6324893802607054</v>
       </c>
       <c r="N46">
-        <v>0.4046137000705919</v>
+        <v>0.404621071516552</v>
       </c>
       <c r="O46">
-        <v>330.2720778862938</v>
+        <v>330.2720777429552</v>
       </c>
       <c r="P46">
-        <v>1.000622385221465</v>
+        <v>1.000622385655737</v>
       </c>
       <c r="S46">
-        <v>37.01499302774489</v>
+        <v>37.01498450835839</v>
       </c>
       <c r="T46">
-        <v>7.112858583663923</v>
+        <v>7.112915658045463</v>
       </c>
       <c r="U46">
-        <v>44.12785161140881</v>
+        <v>44.12790016640385</v>
       </c>
       <c r="V46" t="s">
         <v>154</v>
@@ -5242,52 +5242,52 @@
     </row>
     <row r="47" spans="1:34">
       <c r="A47" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>78</v>
       </c>
       <c r="C47">
-        <v>1453.737672625359</v>
+        <v>1453.737672635668</v>
       </c>
       <c r="D47">
-        <v>18401.35229463275</v>
+        <v>18401.35284459989</v>
       </c>
       <c r="E47">
-        <v>0.6398271363851282</v>
+        <v>0.6398270510630096</v>
       </c>
       <c r="G47">
         <v>0.00258</v>
       </c>
       <c r="H47">
-        <v>0.3661422105644405</v>
+        <v>0.3661424949401877</v>
       </c>
       <c r="I47">
-        <v>1123.454602657775</v>
+        <v>1123.454606443908</v>
       </c>
       <c r="J47">
-        <v>1749.532128186326</v>
+        <v>1749.479830698358</v>
       </c>
       <c r="K47">
-        <v>0.6413855841922999</v>
+        <v>0.6413882938892823</v>
       </c>
       <c r="N47">
-        <v>0.4159579501125144</v>
+        <v>0.4158790862269062</v>
       </c>
       <c r="O47">
-        <v>330.2830699675842</v>
+        <v>330.2830661917603</v>
       </c>
       <c r="P47">
-        <v>1.000589083718605</v>
+        <v>1.000589095157423</v>
       </c>
       <c r="S47">
-        <v>38.04140640038015</v>
+        <v>38.04140192438233</v>
       </c>
       <c r="T47">
-        <v>7.512597024440398</v>
+        <v>7.512301203808233</v>
       </c>
       <c r="U47">
-        <v>45.55400342482055</v>
+        <v>45.55370312819056</v>
       </c>
       <c r="V47" t="s">
         <v>155</v>
@@ -5328,52 +5328,52 @@
     </row>
     <row r="48" spans="1:34">
       <c r="A48" s="1">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>79</v>
       </c>
       <c r="C48">
-        <v>1453.735501160715</v>
+        <v>1453.735501169071</v>
       </c>
       <c r="D48">
-        <v>18534.23595169246</v>
+        <v>18534.23547290455</v>
       </c>
       <c r="E48">
-        <v>0.6374046369283423</v>
+        <v>0.637404518807908</v>
       </c>
       <c r="G48">
         <v>0.00255</v>
       </c>
       <c r="H48">
-        <v>0.3743218602235517</v>
+        <v>0.3743221175058636</v>
       </c>
       <c r="I48">
-        <v>1123.464076869929</v>
+        <v>1123.46407874049</v>
       </c>
       <c r="J48">
-        <v>1704.569295777588</v>
+        <v>1704.540102551262</v>
       </c>
       <c r="K48">
-        <v>0.6407792582352999</v>
+        <v>0.6407818496481071</v>
       </c>
       <c r="N48">
-        <v>0.3971907308320184</v>
+        <v>0.3971430464570929</v>
       </c>
       <c r="O48">
-        <v>330.2714242907862</v>
+        <v>330.2714224285817</v>
       </c>
       <c r="P48">
-        <v>1.000624365417897</v>
+        <v>1.000624371059823</v>
       </c>
       <c r="S48">
-        <v>37.84458409947629</v>
+        <v>37.84454845287728</v>
       </c>
       <c r="T48">
-        <v>7.256259177144927</v>
+        <v>7.256236092066935</v>
       </c>
       <c r="U48">
-        <v>45.10084327662121</v>
+        <v>45.10078454494422</v>
       </c>
       <c r="V48" t="s">
         <v>156</v>
@@ -5414,52 +5414,52 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" s="1">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>80</v>
       </c>
       <c r="C49">
-        <v>1453.73819252486</v>
+        <v>1453.738192522406</v>
       </c>
       <c r="D49">
-        <v>18450.92299958722</v>
+        <v>18450.91358135488</v>
       </c>
       <c r="E49">
-        <v>0.6384859827869048</v>
+        <v>0.6384859413211101</v>
       </c>
       <c r="G49">
         <v>0.00238</v>
       </c>
       <c r="H49">
-        <v>0.3654081334445644</v>
+        <v>0.3654071376132382</v>
       </c>
       <c r="I49">
-        <v>1123.462806200116</v>
+        <v>1123.462805376683</v>
       </c>
       <c r="J49">
-        <v>1788.479691386528</v>
+        <v>1788.490110115961</v>
       </c>
       <c r="K49">
-        <v>0.6304778111154248</v>
+        <v>0.6304778942123817</v>
       </c>
       <c r="N49">
-        <v>0.5242974221868744</v>
+        <v>0.5243120712174508</v>
       </c>
       <c r="O49">
-        <v>330.2753863247437</v>
+        <v>330.2753871457232</v>
       </c>
       <c r="P49">
-        <v>1.000612361775244</v>
+        <v>1.000612359287979</v>
       </c>
       <c r="S49">
-        <v>35.71169472681387</v>
+        <v>35.7115709918587</v>
       </c>
       <c r="T49">
-        <v>19.61819332321195</v>
+        <v>19.61839842206926</v>
       </c>
       <c r="U49">
-        <v>55.32988805002582</v>
+        <v>55.32996941392796</v>
       </c>
       <c r="V49" t="s">
         <v>157</v>
@@ -5500,52 +5500,52 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>81</v>
       </c>
       <c r="C50">
-        <v>1453.736766643799</v>
+        <v>1453.736766652978</v>
       </c>
       <c r="D50">
-        <v>18440.8375216337</v>
+        <v>18440.83906881664</v>
       </c>
       <c r="E50">
-        <v>0.643282018268538</v>
+        <v>0.6432819493557959</v>
       </c>
       <c r="G50">
         <v>0.00243</v>
       </c>
       <c r="H50">
-        <v>0.36523968694035</v>
+        <v>0.3652400510975462</v>
       </c>
       <c r="I50">
-        <v>1123.447941699985</v>
+        <v>1123.447943194913</v>
       </c>
       <c r="J50">
-        <v>1679.457517830227</v>
+        <v>1679.432277121367</v>
       </c>
       <c r="K50">
-        <v>0.6348900362061548</v>
+        <v>0.6348921206149721</v>
       </c>
       <c r="N50">
-        <v>0.4363727022742495</v>
+        <v>0.4363311152083352</v>
       </c>
       <c r="O50">
-        <v>330.2888249438147</v>
+        <v>330.2888234580651</v>
       </c>
       <c r="P50">
-        <v>1.000571649382477</v>
+        <v>1.000571653883383</v>
       </c>
       <c r="S50">
-        <v>35.13885788860641</v>
+        <v>35.13886564007415</v>
       </c>
       <c r="T50">
-        <v>6.96489217869906</v>
+        <v>6.964700253684216</v>
       </c>
       <c r="U50">
-        <v>42.10375006730547</v>
+        <v>42.10356589375836</v>
       </c>
       <c r="V50" t="s">
         <v>158</v>
@@ -5586,52 +5586,52 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>82</v>
       </c>
       <c r="C51">
-        <v>1453.741502412265</v>
+        <v>1453.741502416085</v>
       </c>
       <c r="D51">
-        <v>18825.08645669156</v>
+        <v>18825.0883572272</v>
       </c>
       <c r="E51">
-        <v>0.6344541126917147</v>
+        <v>0.6344539493931804</v>
       </c>
       <c r="G51">
         <v>0.00236</v>
       </c>
       <c r="H51">
-        <v>0.3640384296629333</v>
+        <v>0.3640390850860786</v>
       </c>
       <c r="I51">
-        <v>1123.464554277873</v>
+        <v>1123.464559106935</v>
       </c>
       <c r="J51">
-        <v>1681.895608944919</v>
+        <v>1681.84896162239</v>
       </c>
       <c r="K51">
-        <v>0.6489644676554903</v>
+        <v>0.648964710111689</v>
       </c>
       <c r="N51">
-        <v>0.3972666736380188</v>
+        <v>0.3971992277174212</v>
       </c>
       <c r="O51">
-        <v>330.2769481343917</v>
+        <v>330.2769433091503</v>
       </c>
       <c r="P51">
-        <v>1.000607630091578</v>
+        <v>1.000607644710139</v>
       </c>
       <c r="S51">
-        <v>36.92067391359811</v>
+        <v>36.92069350450095</v>
       </c>
       <c r="T51">
-        <v>6.636651999786875</v>
+        <v>6.636545806191129</v>
       </c>
       <c r="U51">
-        <v>43.55732591338499</v>
+        <v>43.55723931069208</v>
       </c>
       <c r="V51" t="s">
         <v>159</v>
@@ -5672,52 +5672,52 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" s="1">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
       </c>
       <c r="C52">
-        <v>1453.739621453705</v>
+        <v>1453.739621466288</v>
       </c>
       <c r="D52">
-        <v>18737.38310831902</v>
+        <v>18737.38580755598</v>
       </c>
       <c r="E52">
-        <v>0.6386028553852354</v>
+        <v>0.6386027625777997</v>
       </c>
       <c r="G52">
         <v>0.00234</v>
       </c>
       <c r="H52">
-        <v>0.3573818694505615</v>
+        <v>0.3573824236867441</v>
       </c>
       <c r="I52">
-        <v>1123.45817959249</v>
+        <v>1123.458179446137</v>
       </c>
       <c r="J52">
-        <v>1712.683743198696</v>
+        <v>1712.690814696037</v>
       </c>
       <c r="K52">
-        <v>0.6330524496598647</v>
+        <v>0.6330523681198936</v>
       </c>
       <c r="N52">
-        <v>0.4323704700716636</v>
+        <v>0.4323806424818045</v>
       </c>
       <c r="O52">
-        <v>330.2814418612147</v>
+        <v>330.2814420201507</v>
       </c>
       <c r="P52">
-        <v>1.000594016074026</v>
+        <v>1.000594015592527</v>
       </c>
       <c r="S52">
-        <v>36.28824140808653</v>
+        <v>36.28825572591655</v>
       </c>
       <c r="T52">
-        <v>5.969671279928045</v>
+        <v>5.969726687550049</v>
       </c>
       <c r="U52">
-        <v>42.25791268801457</v>
+        <v>42.2579824134666</v>
       </c>
       <c r="V52" t="s">
         <v>160</v>
@@ -5758,52 +5758,52 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" s="1">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>84</v>
       </c>
       <c r="C53">
-        <v>1453.739009227892</v>
+        <v>1453.739009240468</v>
       </c>
       <c r="D53">
-        <v>19165.86854361871</v>
+        <v>19165.87050482735</v>
       </c>
       <c r="E53">
-        <v>0.6348871079760772</v>
+        <v>0.6348869545491639</v>
       </c>
       <c r="G53">
         <v>0.0023</v>
       </c>
       <c r="H53">
-        <v>0.3573607442194573</v>
+        <v>0.3573613737650015</v>
       </c>
       <c r="I53">
-        <v>1123.456898419726</v>
+        <v>1123.456902086759</v>
       </c>
       <c r="J53">
-        <v>1767.239096135984</v>
+        <v>1767.18466581698</v>
       </c>
       <c r="K53">
-        <v>0.6389786114544196</v>
+        <v>0.6389816478265185</v>
       </c>
       <c r="N53">
-        <v>0.4336207846667231</v>
+        <v>0.4335388073655105</v>
       </c>
       <c r="O53">
-        <v>330.2821108081669</v>
+        <v>330.2821071537091</v>
       </c>
       <c r="P53">
-        <v>1.000591989490401</v>
+        <v>1.000592000561607</v>
       </c>
       <c r="S53">
-        <v>36.51719283919853</v>
+        <v>36.5171746542336</v>
       </c>
       <c r="T53">
-        <v>7.592200406422172</v>
+        <v>7.592644960559123</v>
       </c>
       <c r="U53">
-        <v>44.1093932456207</v>
+        <v>44.10981961479272</v>
       </c>
       <c r="V53" t="s">
         <v>161</v>
@@ -5844,52 +5844,52 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" s="1">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>85</v>
       </c>
       <c r="C54">
-        <v>1453.737860758882</v>
+        <v>1453.73786076628</v>
       </c>
       <c r="D54">
-        <v>18627.06882953945</v>
+        <v>18627.07070457179</v>
       </c>
       <c r="E54">
-        <v>0.6400916907372365</v>
+        <v>0.6400915700405473</v>
       </c>
       <c r="G54">
         <v>0.00238</v>
       </c>
       <c r="H54">
-        <v>0.363999279034105</v>
+        <v>0.3639998161022251</v>
       </c>
       <c r="I54">
-        <v>1123.456781123916</v>
+        <v>1123.456784324525</v>
       </c>
       <c r="J54">
-        <v>1735.618618782915</v>
+        <v>1735.576791592052</v>
       </c>
       <c r="K54">
-        <v>0.6449499106239776</v>
+        <v>0.6449507538891188</v>
       </c>
       <c r="N54">
-        <v>0.4002627806258631</v>
+        <v>0.4002015840553133</v>
       </c>
       <c r="O54">
-        <v>330.2810796349665</v>
+        <v>330.281076441755</v>
       </c>
       <c r="P54">
-        <v>1.000595113446654</v>
+        <v>1.000595123120572</v>
       </c>
       <c r="S54">
-        <v>36.06380307522505</v>
+        <v>36.06379449535349</v>
       </c>
       <c r="T54">
-        <v>7.216516853546096</v>
+        <v>7.216211700182853</v>
       </c>
       <c r="U54">
-        <v>43.28031992877114</v>
+        <v>43.28000619553634</v>
       </c>
       <c r="V54" t="s">
         <v>162</v>
@@ -5930,52 +5930,52 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" s="1">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>86</v>
       </c>
       <c r="C55">
-        <v>1453.735018931254</v>
+        <v>1453.735018933479</v>
       </c>
       <c r="D55">
-        <v>18234.15745239324</v>
+        <v>18234.15748514444</v>
       </c>
       <c r="E55">
-        <v>0.6371674030842422</v>
+        <v>0.6371673586208575</v>
       </c>
       <c r="G55">
         <v>0.0023</v>
       </c>
       <c r="H55">
-        <v>0.3661177055186136</v>
+        <v>0.3661178252234975</v>
       </c>
       <c r="I55">
-        <v>1123.454350391009</v>
+        <v>1123.454347206975</v>
       </c>
       <c r="J55">
-        <v>1715.045574671074</v>
+        <v>1715.077761180311</v>
       </c>
       <c r="K55">
-        <v>0.6389334102934145</v>
+        <v>0.6389345096279194</v>
       </c>
       <c r="N55">
-        <v>0.4386737816450029</v>
+        <v>0.4387154604624717</v>
       </c>
       <c r="O55">
-        <v>330.2806685402454</v>
+        <v>330.2806717265037</v>
       </c>
       <c r="P55">
-        <v>1.000596358870345</v>
+        <v>1.000596349217469</v>
       </c>
       <c r="S55">
-        <v>33.67626802263266</v>
+        <v>33.67625672380856</v>
       </c>
       <c r="T55">
-        <v>6.120500883989195</v>
+        <v>6.121335542152485</v>
       </c>
       <c r="U55">
-        <v>39.79676890662186</v>
+        <v>39.79759226596104</v>
       </c>
       <c r="V55" t="s">
         <v>163</v>
@@ -6016,52 +6016,52 @@
     </row>
     <row r="56" spans="1:34">
       <c r="A56" s="1">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>87</v>
       </c>
       <c r="C56">
-        <v>1453.736214682626</v>
+        <v>1453.736214694482</v>
       </c>
       <c r="D56">
-        <v>19103.40194161276</v>
+        <v>19103.40368087279</v>
       </c>
       <c r="E56">
-        <v>0.6384985882473829</v>
+        <v>0.6384984596224297</v>
       </c>
       <c r="G56">
         <v>0.00234</v>
       </c>
       <c r="H56">
-        <v>0.3609344289092593</v>
+        <v>0.3609349703989764</v>
       </c>
       <c r="I56">
-        <v>1123.446339380637</v>
+        <v>1123.44634046675</v>
       </c>
       <c r="J56">
-        <v>1687.153235956928</v>
+        <v>1687.138793357876</v>
       </c>
       <c r="K56">
-        <v>0.6259905734495386</v>
+        <v>0.6259928248418958</v>
       </c>
       <c r="N56">
-        <v>0.4818135560798942</v>
+        <v>0.4817879117284113</v>
       </c>
       <c r="O56">
-        <v>330.2898753019895</v>
+        <v>330.2898742277318</v>
       </c>
       <c r="P56">
-        <v>1.000568467454449</v>
+        <v>1.000568470708768</v>
       </c>
       <c r="S56">
-        <v>36.71461726826345</v>
+        <v>36.71460532528267</v>
       </c>
       <c r="T56">
-        <v>8.039993706579741</v>
+        <v>8.039872927657871</v>
       </c>
       <c r="U56">
-        <v>44.75461097484319</v>
+        <v>44.75447825294054</v>
       </c>
       <c r="V56" t="s">
         <v>164</v>
@@ -6102,52 +6102,52 @@
     </row>
     <row r="57" spans="1:34">
       <c r="A57" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
       <c r="C57">
-        <v>1453.739015376259</v>
+        <v>1453.739015389572</v>
       </c>
       <c r="D57">
-        <v>18898.53633129797</v>
+        <v>18898.53802956064</v>
       </c>
       <c r="E57">
-        <v>0.6377948317141833</v>
+        <v>0.6377946997644165</v>
       </c>
       <c r="G57">
         <v>0.00233</v>
       </c>
       <c r="H57">
-        <v>0.3552664348228638</v>
+        <v>0.3552669797966843</v>
       </c>
       <c r="I57">
-        <v>1123.458848131783</v>
+        <v>1123.458855860321</v>
       </c>
       <c r="J57">
-        <v>1659.920471857112</v>
+        <v>1659.822059972202</v>
       </c>
       <c r="K57">
-        <v>0.6475281053984927</v>
+        <v>0.6475369294625752</v>
       </c>
       <c r="N57">
-        <v>0.4050089866002046</v>
+        <v>0.4048428593639734</v>
       </c>
       <c r="O57">
-        <v>330.2801672444764</v>
+        <v>330.280159529251</v>
       </c>
       <c r="P57">
-        <v>1.00059787756499</v>
+        <v>1.000597900938595</v>
       </c>
       <c r="S57">
-        <v>35.4645695210501</v>
+        <v>35.46455806358919</v>
       </c>
       <c r="T57">
-        <v>6.534422932170031</v>
+        <v>6.531908466511248</v>
       </c>
       <c r="U57">
-        <v>41.99899245322013</v>
+        <v>41.99646653010044</v>
       </c>
       <c r="V57" t="s">
         <v>165</v>
@@ -6188,52 +6188,52 @@
     </row>
     <row r="58" spans="1:34">
       <c r="A58" s="1">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>89</v>
       </c>
       <c r="C58">
-        <v>1453.740862474359</v>
+        <v>1453.740862484779</v>
       </c>
       <c r="D58">
-        <v>18948.3085800827</v>
+        <v>18948.30687737206</v>
       </c>
       <c r="E58">
-        <v>0.6399695206154562</v>
+        <v>0.639969443841512</v>
       </c>
       <c r="G58">
         <v>0.00238</v>
       </c>
       <c r="H58">
-        <v>0.3532647965412022</v>
+        <v>0.3532648053787124</v>
       </c>
       <c r="I58">
-        <v>1123.456453227363</v>
+        <v>1123.45645104648</v>
       </c>
       <c r="J58">
-        <v>1724.490536467059</v>
+        <v>1724.515111556411</v>
       </c>
       <c r="K58">
-        <v>0.6364635069811126</v>
+        <v>0.6364637533238682</v>
       </c>
       <c r="N58">
-        <v>0.4185369396219878</v>
+        <v>0.4185700791628302</v>
       </c>
       <c r="O58">
-        <v>330.2844092469963</v>
+        <v>330.2844114382988</v>
       </c>
       <c r="P58">
-        <v>1.000585026402176</v>
+        <v>1.000585019763702</v>
       </c>
       <c r="S58">
-        <v>36.58607505015347</v>
+        <v>36.58605118509112</v>
       </c>
       <c r="T58">
-        <v>4.846224029287701</v>
+        <v>4.846331424245477</v>
       </c>
       <c r="U58">
-        <v>41.43229907944117</v>
+        <v>41.43238260933659</v>
       </c>
       <c r="V58" t="s">
         <v>166</v>
@@ -6274,52 +6274,52 @@
     </row>
     <row r="59" spans="1:34">
       <c r="A59" s="1">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
         <v>90</v>
       </c>
       <c r="C59">
-        <v>1453.740619817321</v>
+        <v>1453.740619818348</v>
       </c>
       <c r="D59">
-        <v>18537.19728561596</v>
+        <v>18537.19701423655</v>
       </c>
       <c r="E59">
-        <v>0.642567707985807</v>
+        <v>0.642567810699751</v>
       </c>
       <c r="G59">
         <v>0.00225</v>
       </c>
       <c r="H59">
-        <v>0.3458466451595339</v>
+        <v>0.3458463804605866</v>
       </c>
       <c r="I59">
-        <v>1123.468722166718</v>
+        <v>1123.468725279106</v>
       </c>
       <c r="J59">
-        <v>1776.922348741605</v>
+        <v>1776.889134113735</v>
       </c>
       <c r="K59">
-        <v>0.644344593528412</v>
+        <v>0.6443438249434952</v>
       </c>
       <c r="N59">
-        <v>0.3932387533224558</v>
+        <v>0.393195613902055</v>
       </c>
       <c r="O59">
-        <v>330.2718976506026</v>
+        <v>330.2718945392426</v>
       </c>
       <c r="P59">
-        <v>1.000622931280238</v>
+        <v>1.000622940706709</v>
       </c>
       <c r="S59">
-        <v>33.30604119881988</v>
+        <v>33.30605513056275</v>
       </c>
       <c r="T59">
-        <v>6.423798301893248</v>
+        <v>6.423063008670955</v>
       </c>
       <c r="U59">
-        <v>39.72983950071313</v>
+        <v>39.72911813923371</v>
       </c>
       <c r="V59" t="s">
         <v>167</v>
@@ -6360,52 +6360,52 @@
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="1">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>91</v>
       </c>
       <c r="C60">
-        <v>1453.739166505127</v>
+        <v>1453.739166517766</v>
       </c>
       <c r="D60">
-        <v>18439.71454770161</v>
+        <v>18439.72198700724</v>
       </c>
       <c r="E60">
-        <v>0.635563496525186</v>
+        <v>0.6355633472984946</v>
       </c>
       <c r="G60">
         <v>0.00258</v>
       </c>
       <c r="H60">
-        <v>0.3773207889152105</v>
+        <v>0.3773220578236004</v>
       </c>
       <c r="I60">
-        <v>1123.469394106456</v>
+        <v>1123.469410228612</v>
       </c>
       <c r="J60">
-        <v>1648.930974889172</v>
+        <v>1648.786527055176</v>
       </c>
       <c r="K60">
-        <v>0.6352672620768436</v>
+        <v>0.6352628169325497</v>
       </c>
       <c r="N60">
-        <v>0.4410268066758337</v>
+        <v>0.4408331868977803</v>
       </c>
       <c r="O60">
-        <v>330.2697723986705</v>
+        <v>330.2697562891544</v>
       </c>
       <c r="P60">
-        <v>1.000629370185629</v>
+        <v>1.000629418993171</v>
       </c>
       <c r="S60">
-        <v>38.43435663597151</v>
+        <v>38.43439623047728</v>
       </c>
       <c r="T60">
-        <v>7.592917406303147</v>
+        <v>7.592937886185947</v>
       </c>
       <c r="U60">
-        <v>46.02727404227466</v>
+        <v>46.02733411666323</v>
       </c>
       <c r="V60" t="s">
         <v>168</v>
@@ -6446,52 +6446,52 @@
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="1">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>92</v>
       </c>
       <c r="C61">
-        <v>1453.737174626385</v>
+        <v>1453.737174649037</v>
       </c>
       <c r="D61">
-        <v>19260.64422918573</v>
+        <v>19260.64650688229</v>
       </c>
       <c r="E61">
-        <v>0.6400525747491</v>
+        <v>0.6400524173649926</v>
       </c>
       <c r="G61">
         <v>0.00246</v>
       </c>
       <c r="H61">
-        <v>0.3629341794920468</v>
+        <v>0.3629348486410592</v>
       </c>
       <c r="I61">
-        <v>1123.46565541389</v>
+        <v>1123.465648633025</v>
       </c>
       <c r="J61">
-        <v>1624.080935831232</v>
+        <v>1624.162260516479</v>
       </c>
       <c r="K61">
-        <v>0.6329887567255298</v>
+        <v>0.6329829351266812</v>
       </c>
       <c r="N61">
-        <v>0.3849765985650932</v>
+        <v>0.385112452283625</v>
       </c>
       <c r="O61">
-        <v>330.2715192124949</v>
+        <v>330.2715260160119</v>
       </c>
       <c r="P61">
-        <v>1.000624077833382</v>
+        <v>1.000624057220758</v>
       </c>
       <c r="S61">
-        <v>38.09695093178016</v>
+        <v>38.09695484952366</v>
       </c>
       <c r="T61">
-        <v>6.878956811331004</v>
+        <v>6.880574598977456</v>
       </c>
       <c r="U61">
-        <v>44.97590774311116</v>
+        <v>44.97752944850112</v>
       </c>
       <c r="V61" t="s">
         <v>169</v>
@@ -6532,52 +6532,52 @@
     </row>
     <row r="62" spans="1:34">
       <c r="A62" s="1">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>93</v>
       </c>
       <c r="C62">
-        <v>1453.733676725491</v>
+        <v>1453.733676750572</v>
       </c>
       <c r="D62">
-        <v>19428.70801227252</v>
+        <v>19428.7223040801</v>
       </c>
       <c r="E62">
-        <v>0.6405013400554459</v>
+        <v>0.6405010937456714</v>
       </c>
       <c r="G62">
         <v>0.0024</v>
       </c>
       <c r="H62">
-        <v>0.3624004610080098</v>
+        <v>0.3624027187720768</v>
       </c>
       <c r="I62">
-        <v>1123.459350753609</v>
+        <v>1123.45934945296</v>
       </c>
       <c r="J62">
-        <v>1646.437585078597</v>
+        <v>1646.452925573</v>
       </c>
       <c r="K62">
-        <v>0.6383453964389468</v>
+        <v>0.6383448858803069</v>
       </c>
       <c r="N62">
-        <v>0.4395224637908171</v>
+        <v>0.4395459371940049</v>
       </c>
       <c r="O62">
-        <v>330.274325971882</v>
+        <v>330.2743272976122</v>
       </c>
       <c r="P62">
-        <v>1.000615574262857</v>
+        <v>1.000615570246359</v>
       </c>
       <c r="S62">
-        <v>38.11079132031374</v>
+        <v>38.11090154771414</v>
       </c>
       <c r="T62">
-        <v>6.421098984249014</v>
+        <v>6.421157689509155</v>
       </c>
       <c r="U62">
-        <v>44.53189030456276</v>
+        <v>44.53205923722329</v>
       </c>
       <c r="V62" t="s">
         <v>170</v>
@@ -6618,52 +6618,52 @@
     </row>
     <row r="63" spans="1:34">
       <c r="A63" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
         <v>94</v>
       </c>
       <c r="C63">
-        <v>1453.736443381953</v>
+        <v>1453.736443406442</v>
       </c>
       <c r="D63">
-        <v>19144.20051811798</v>
+        <v>19144.20442995782</v>
       </c>
       <c r="E63">
-        <v>0.6394934945029453</v>
+        <v>0.6394932949625507</v>
       </c>
       <c r="G63">
         <v>0.00253</v>
       </c>
       <c r="H63">
-        <v>0.3657154644719462</v>
+        <v>0.3657164376126722</v>
       </c>
       <c r="I63">
-        <v>1123.448340202845</v>
+        <v>1123.448336291666</v>
       </c>
       <c r="J63">
-        <v>1649.360921450206</v>
+        <v>1649.416302989384</v>
       </c>
       <c r="K63">
-        <v>0.6483330036934141</v>
+        <v>0.6483241260614044</v>
       </c>
       <c r="N63">
-        <v>0.4321981881821381</v>
+        <v>0.4323005759370849</v>
       </c>
       <c r="O63">
-        <v>330.288103179108</v>
+        <v>330.288107114776</v>
       </c>
       <c r="P63">
-        <v>1.000573835889639</v>
+        <v>1.000573823966937</v>
       </c>
       <c r="S63">
-        <v>38.65433457345595</v>
+        <v>38.65433331897265</v>
       </c>
       <c r="T63">
-        <v>7.595148709568014</v>
+        <v>7.595564863789876</v>
       </c>
       <c r="U63">
-        <v>46.24948328302396</v>
+        <v>46.24989818276252</v>
       </c>
       <c r="V63" t="s">
         <v>171</v>
@@ -6704,52 +6704,52 @@
     </row>
     <row r="64" spans="1:34">
       <c r="A64" s="1">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
         <v>95</v>
       </c>
       <c r="C64">
-        <v>1453.734744101471</v>
+        <v>1453.734744109124</v>
       </c>
       <c r="D64">
-        <v>19266.94374908622</v>
+        <v>19266.94632617488</v>
       </c>
       <c r="E64">
-        <v>0.6411237895653565</v>
+        <v>0.6411236468099419</v>
       </c>
       <c r="G64">
         <v>0.00223</v>
       </c>
       <c r="H64">
-        <v>0.3535624496684304</v>
+        <v>0.3535631236074057</v>
       </c>
       <c r="I64">
-        <v>1123.458725777319</v>
+        <v>1123.458724788093</v>
       </c>
       <c r="J64">
-        <v>1705.452579352027</v>
+        <v>1705.4645756381</v>
       </c>
       <c r="K64">
-        <v>0.6441118678082477</v>
+        <v>0.6441129670193781</v>
       </c>
       <c r="N64">
-        <v>0.4048410861081932</v>
+        <v>0.4048558298859614</v>
       </c>
       <c r="O64">
-        <v>330.2760183241521</v>
+        <v>330.2760193210308</v>
       </c>
       <c r="P64">
-        <v>1.000610447054266</v>
+        <v>1.000610444034103</v>
       </c>
       <c r="S64">
-        <v>34.92099821959558</v>
+        <v>34.92099091904142</v>
       </c>
       <c r="T64">
-        <v>7.370700610040173</v>
+        <v>7.371161341788202</v>
       </c>
       <c r="U64">
-        <v>42.29169882963576</v>
+        <v>42.29215226082962</v>
       </c>
       <c r="V64" t="s">
         <v>172</v>
@@ -6790,52 +6790,52 @@
     </row>
     <row r="65" spans="1:34">
       <c r="A65" s="1">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
         <v>96</v>
       </c>
       <c r="C65">
-        <v>1453.739008315999</v>
+        <v>1453.739008333758</v>
       </c>
       <c r="D65">
-        <v>18987.490107053</v>
+        <v>18987.49107218187</v>
       </c>
       <c r="E65">
-        <v>0.6403745036920908</v>
+        <v>0.6403744081370396</v>
       </c>
       <c r="G65">
         <v>0.00255</v>
       </c>
       <c r="H65">
-        <v>0.3622949007947945</v>
+        <v>0.3622952539165722</v>
       </c>
       <c r="I65">
-        <v>1123.458680248757</v>
+        <v>1123.458677423274</v>
       </c>
       <c r="J65">
-        <v>1635.127791308728</v>
+        <v>1635.157855666117</v>
       </c>
       <c r="K65">
-        <v>0.6514014969741363</v>
+        <v>0.6514004592243711</v>
       </c>
       <c r="N65">
-        <v>0.380797643146546</v>
+        <v>0.3808448528018576</v>
       </c>
       <c r="O65">
-        <v>330.2803280672422</v>
+        <v>330.2803309104836</v>
       </c>
       <c r="P65">
-        <v>1.000597390345787</v>
+        <v>1.000597381732074</v>
       </c>
       <c r="S65">
-        <v>39.18149893697014</v>
+        <v>39.181494184835</v>
       </c>
       <c r="T65">
-        <v>6.002513528654035</v>
+        <v>6.002649811439183</v>
       </c>
       <c r="U65">
-        <v>45.18401246562418</v>
+        <v>45.18414399627418</v>
       </c>
       <c r="V65" t="s">
         <v>173</v>
@@ -6876,52 +6876,52 @@
     </row>
     <row r="66" spans="1:34">
       <c r="A66" s="1">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>97</v>
       </c>
       <c r="C66">
-        <v>1453.739593600486</v>
+        <v>1453.739593623573</v>
       </c>
       <c r="D66">
-        <v>19030.55309600774</v>
+        <v>19030.55739097994</v>
       </c>
       <c r="E66">
-        <v>0.6381126434564393</v>
+        <v>0.6381124838557671</v>
       </c>
       <c r="G66">
         <v>0.00245</v>
       </c>
       <c r="H66">
-        <v>0.3603574463194404</v>
+        <v>0.3603583559622074</v>
       </c>
       <c r="I66">
-        <v>1123.455078325521</v>
+        <v>1123.455079348842</v>
       </c>
       <c r="J66">
-        <v>1679.072733589212</v>
+        <v>1679.059402063177</v>
       </c>
       <c r="K66">
-        <v>0.6328986943873888</v>
+        <v>0.6328996752894331</v>
       </c>
       <c r="N66">
-        <v>0.4886443942899185</v>
+        <v>0.4886233124917453</v>
       </c>
       <c r="O66">
-        <v>330.2845152749651</v>
+        <v>330.2845142747315</v>
       </c>
       <c r="P66">
-        <v>1.000584705194269</v>
+        <v>1.000584708224439</v>
       </c>
       <c r="S66">
-        <v>37.77803186302317</v>
+        <v>37.77805363154803</v>
       </c>
       <c r="T66">
-        <v>7.341837991218052</v>
+        <v>7.341481968014217</v>
       </c>
       <c r="U66">
-        <v>45.11986985424122</v>
+        <v>45.11953559956224</v>
       </c>
       <c r="V66" t="s">
         <v>174</v>
@@ -6962,52 +6962,52 @@
     </row>
     <row r="67" spans="1:34">
       <c r="A67" s="1">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
         <v>98</v>
       </c>
       <c r="C67">
-        <v>1453.732367401654</v>
+        <v>1453.732367416853</v>
       </c>
       <c r="D67">
-        <v>19168.95457053872</v>
+        <v>19168.95636601711</v>
       </c>
       <c r="E67">
-        <v>0.6386727993281389</v>
+        <v>0.6386726142676993</v>
       </c>
       <c r="G67">
         <v>0.0025</v>
       </c>
       <c r="H67">
-        <v>0.3653422704509396</v>
+        <v>0.3653429616989983</v>
       </c>
       <c r="I67">
-        <v>1123.463547916458</v>
+        <v>1123.463546213057</v>
       </c>
       <c r="J67">
-        <v>1640.125854947001</v>
+        <v>1640.148927240743</v>
       </c>
       <c r="K67">
-        <v>0.6451013320136078</v>
+        <v>0.6451003885500577</v>
       </c>
       <c r="N67">
-        <v>0.3855972314689813</v>
+        <v>0.3856342585633636</v>
       </c>
       <c r="O67">
-        <v>330.268819485196</v>
+        <v>330.2688212037958</v>
       </c>
       <c r="P67">
-        <v>1.000632257267769</v>
+        <v>1.000632252060839</v>
       </c>
       <c r="S67">
-        <v>38.87579517901549</v>
+        <v>38.87576824486851</v>
       </c>
       <c r="T67">
-        <v>6.146784291345871</v>
+        <v>6.14747827463543</v>
       </c>
       <c r="U67">
-        <v>45.02257947036136</v>
+        <v>45.02324651950394</v>
       </c>
       <c r="V67" t="s">
         <v>175</v>
@@ -7048,52 +7048,52 @@
     </row>
     <row r="68" spans="1:34">
       <c r="A68" s="1">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
         <v>99</v>
       </c>
       <c r="C68">
-        <v>1453.739822124797</v>
+        <v>1453.739822150763</v>
       </c>
       <c r="D68">
-        <v>19165.78187483255</v>
+        <v>19165.78332819425</v>
       </c>
       <c r="E68">
-        <v>0.638951305910893</v>
+        <v>0.6389511645467225</v>
       </c>
       <c r="G68">
         <v>0.00252</v>
       </c>
       <c r="H68">
-        <v>0.3617899680735949</v>
+        <v>0.3617905003620441</v>
       </c>
       <c r="I68">
-        <v>1123.460798487361</v>
+        <v>1123.46079962768</v>
       </c>
       <c r="J68">
-        <v>1641.14997473897</v>
+        <v>1641.136634874088</v>
       </c>
       <c r="K68">
-        <v>0.6421985794088786</v>
+        <v>0.6422008618947953</v>
       </c>
       <c r="N68">
-        <v>0.4184014733085545</v>
+        <v>0.4183764274432051</v>
       </c>
       <c r="O68">
-        <v>330.2790236374362</v>
+        <v>330.2790225230829</v>
       </c>
       <c r="P68">
-        <v>1.000601342183373</v>
+        <v>1.000601345559378</v>
       </c>
       <c r="S68">
-        <v>38.61748282711814</v>
+        <v>38.61747715259807</v>
       </c>
       <c r="T68">
-        <v>6.404902492591802</v>
+        <v>6.404822280078865</v>
       </c>
       <c r="U68">
-        <v>45.02238531970994</v>
+        <v>45.02229943267694</v>
       </c>
       <c r="V68" t="s">
         <v>176</v>
@@ -7134,52 +7134,52 @@
     </row>
     <row r="69" spans="1:34">
       <c r="A69" s="1">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
         <v>100</v>
       </c>
       <c r="C69">
-        <v>1453.738699550633</v>
+        <v>1453.738699573467</v>
       </c>
       <c r="D69">
-        <v>19017.22854079283</v>
+        <v>19017.23000224803</v>
       </c>
       <c r="E69">
-        <v>0.6438549959069366</v>
+        <v>0.6438548863572719</v>
       </c>
       <c r="G69">
         <v>0.00252</v>
       </c>
       <c r="H69">
-        <v>0.356162052988671</v>
+        <v>0.3561625041898896</v>
       </c>
       <c r="I69">
-        <v>1123.468134710714</v>
+        <v>1123.468134669936</v>
       </c>
       <c r="J69">
-        <v>1651.910949571027</v>
+        <v>1651.911986601259</v>
       </c>
       <c r="K69">
-        <v>0.6442815928625137</v>
+        <v>0.6442814616017399</v>
       </c>
       <c r="N69">
-        <v>0.3922101792101771</v>
+        <v>0.3922120203665606</v>
       </c>
       <c r="O69">
-        <v>330.2705648399192</v>
+        <v>330.2705649035304</v>
       </c>
       <c r="P69">
-        <v>1.000626969305648</v>
+        <v>1.000626969112924</v>
       </c>
       <c r="S69">
-        <v>37.96314694593594</v>
+        <v>37.96314660888233</v>
       </c>
       <c r="T69">
-        <v>5.643545592272753</v>
+        <v>5.64355317612995</v>
       </c>
       <c r="U69">
-        <v>43.60669253820869</v>
+        <v>43.60669978501228</v>
       </c>
       <c r="V69" t="s">
         <v>177</v>
@@ -7220,52 +7220,52 @@
     </row>
     <row r="70" spans="1:34">
       <c r="A70" s="1">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>101</v>
       </c>
       <c r="C70">
-        <v>1453.732430109438</v>
+        <v>1453.732430122003</v>
       </c>
       <c r="D70">
-        <v>19437.92347488151</v>
+        <v>19437.92495407654</v>
       </c>
       <c r="E70">
-        <v>0.6398856791541511</v>
+        <v>0.6398855661652311</v>
       </c>
       <c r="G70">
         <v>0.00227</v>
       </c>
       <c r="H70">
-        <v>0.3682562445209489</v>
+        <v>0.3682567030666429</v>
       </c>
       <c r="I70">
-        <v>1123.46130448371</v>
+        <v>1123.46130423461</v>
       </c>
       <c r="J70">
-        <v>1625.025666537555</v>
+        <v>1625.029070790457</v>
       </c>
       <c r="K70">
-        <v>0.6376301570302547</v>
+        <v>0.6376279007615125</v>
       </c>
       <c r="N70">
-        <v>0.3659906224599336</v>
+        <v>0.366001129293324</v>
       </c>
       <c r="O70">
-        <v>330.2711256257278</v>
+        <v>330.2711258873935</v>
       </c>
       <c r="P70">
-        <v>1.000625270285175</v>
+        <v>1.000625269492404</v>
       </c>
       <c r="S70">
-        <v>35.32011970571468</v>
+        <v>35.32010004904854</v>
       </c>
       <c r="T70">
-        <v>6.927222268329436</v>
+        <v>6.927277515687192</v>
       </c>
       <c r="U70">
-        <v>42.24734197404412</v>
+        <v>42.24737756473574</v>
       </c>
       <c r="V70" t="s">
         <v>178</v>
@@ -7306,52 +7306,52 @@
     </row>
     <row r="71" spans="1:34">
       <c r="A71" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>102</v>
       </c>
       <c r="C71">
-        <v>1453.734489621785</v>
+        <v>1453.734489636459</v>
       </c>
       <c r="D71">
-        <v>19139.66094135307</v>
+        <v>19139.66213654533</v>
       </c>
       <c r="E71">
-        <v>0.638892204080739</v>
+        <v>0.6388920241497454</v>
       </c>
       <c r="G71">
         <v>0.00236</v>
       </c>
       <c r="H71">
-        <v>0.3642155652224719</v>
+        <v>0.364216172467112</v>
       </c>
       <c r="I71">
-        <v>1123.456752248361</v>
+        <v>1123.456761490664</v>
       </c>
       <c r="J71">
-        <v>1707.201807247167</v>
+        <v>1707.096002236742</v>
       </c>
       <c r="K71">
-        <v>0.6395627112767462</v>
+        <v>0.639565847765476</v>
       </c>
       <c r="N71">
-        <v>0.4486201603705217</v>
+        <v>0.4484644191471296</v>
       </c>
       <c r="O71">
-        <v>330.2777373734239</v>
+        <v>330.2777281457952</v>
       </c>
       <c r="P71">
-        <v>1.000605239017315</v>
+        <v>1.000605266973223</v>
       </c>
       <c r="S71">
-        <v>36.08245905736153</v>
+        <v>36.08242687012345</v>
       </c>
       <c r="T71">
-        <v>6.767628220372069</v>
+        <v>6.764932071947686</v>
       </c>
       <c r="U71">
-        <v>42.85008727773359</v>
+        <v>42.84735894207113</v>
       </c>
       <c r="V71" t="s">
         <v>179</v>
@@ -7392,52 +7392,52 @@
     </row>
     <row r="72" spans="1:34">
       <c r="A72" s="1">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
       </c>
       <c r="C72">
-        <v>1453.736949372105</v>
+        <v>1453.736949359087</v>
       </c>
       <c r="D72">
-        <v>19613.02077713572</v>
+        <v>19613.01765782246</v>
       </c>
       <c r="E72">
-        <v>0.6387786477071351</v>
+        <v>0.6387787896800146</v>
       </c>
       <c r="G72">
         <v>0.00259</v>
       </c>
       <c r="H72">
-        <v>0.3678215952569744</v>
+        <v>0.3678208752807198</v>
       </c>
       <c r="I72">
-        <v>1123.462828010276</v>
+        <v>1123.462827411036</v>
       </c>
       <c r="J72">
-        <v>1723.977013761242</v>
+        <v>1723.983549129483</v>
       </c>
       <c r="K72">
-        <v>0.6350287078853551</v>
+        <v>0.6350286561480665</v>
       </c>
       <c r="N72">
-        <v>0.4285956039772732</v>
+        <v>0.4286049298903449</v>
       </c>
       <c r="O72">
-        <v>330.2741213618294</v>
+        <v>330.2741219480504</v>
       </c>
       <c r="P72">
-        <v>1.000616194160064</v>
+        <v>1.000616192384018</v>
       </c>
       <c r="S72">
-        <v>40.57082396040256</v>
+        <v>40.57082265748628</v>
       </c>
       <c r="T72">
-        <v>6.039154443386007</v>
+        <v>6.039221300033113</v>
       </c>
       <c r="U72">
-        <v>46.60997840378857</v>
+        <v>46.61004395751939</v>
       </c>
       <c r="V72" t="s">
         <v>180</v>
@@ -7478,52 +7478,52 @@
     </row>
     <row r="73" spans="1:34">
       <c r="A73" s="1">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
       </c>
       <c r="C73">
-        <v>1453.73596990952</v>
+        <v>1453.735969924104</v>
       </c>
       <c r="D73">
-        <v>19271.83361562422</v>
+        <v>19271.83516304578</v>
       </c>
       <c r="E73">
-        <v>0.6433133166216769</v>
+        <v>0.6433132359178328</v>
       </c>
       <c r="G73">
         <v>0.00231</v>
       </c>
       <c r="H73">
-        <v>0.3517181504301298</v>
+        <v>0.3517185468522294</v>
       </c>
       <c r="I73">
-        <v>1123.458797878927</v>
+        <v>1123.458796279753</v>
       </c>
       <c r="J73">
-        <v>1719.655329035681</v>
+        <v>1719.679298437244</v>
       </c>
       <c r="K73">
-        <v>0.6366452115193471</v>
+        <v>0.636644501710348</v>
       </c>
       <c r="N73">
-        <v>0.4564019871546854</v>
+        <v>0.456436520666578</v>
       </c>
       <c r="O73">
-        <v>330.277172030593</v>
+        <v>330.2771736443515</v>
       </c>
       <c r="P73">
-        <v>1.000606951775708</v>
+        <v>1.000606946886669</v>
       </c>
       <c r="S73">
-        <v>35.63665343504225</v>
+        <v>35.63666063608861</v>
       </c>
       <c r="T73">
-        <v>5.879792381958765</v>
+        <v>5.880197977337836</v>
       </c>
       <c r="U73">
-        <v>41.51644581700101</v>
+        <v>41.51685861342645</v>
       </c>
       <c r="V73" t="s">
         <v>181</v>
@@ -7564,52 +7564,52 @@
     </row>
     <row r="74" spans="1:34">
       <c r="A74" s="1">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
         <v>105</v>
       </c>
       <c r="C74">
-        <v>1453.734050539699</v>
+        <v>1453.734050564974</v>
       </c>
       <c r="D74">
-        <v>19579.98321347454</v>
+        <v>19579.98663102658</v>
       </c>
       <c r="E74">
-        <v>0.6443745795803294</v>
+        <v>0.6443743401031139</v>
       </c>
       <c r="G74">
         <v>0.00246</v>
       </c>
       <c r="H74">
-        <v>0.3571353474797032</v>
+        <v>0.3571363528379445</v>
       </c>
       <c r="I74">
-        <v>1123.468257256483</v>
+        <v>1123.468255795937</v>
       </c>
       <c r="J74">
-        <v>1726.601059539472</v>
+        <v>1726.618592781991</v>
       </c>
       <c r="K74">
-        <v>0.6523647740833091</v>
+        <v>0.6523644431445752</v>
       </c>
       <c r="N74">
-        <v>0.3776090777759795</v>
+        <v>0.3776348849201987</v>
       </c>
       <c r="O74">
-        <v>330.2657932832162</v>
+        <v>330.2657947690366</v>
       </c>
       <c r="P74">
-        <v>1.00064142598999</v>
+        <v>1.000641421488242</v>
       </c>
       <c r="S74">
-        <v>37.96077099215509</v>
+        <v>37.96075513637956</v>
       </c>
       <c r="T74">
-        <v>5.715907188375997</v>
+        <v>5.716022155626201</v>
       </c>
       <c r="U74">
-        <v>43.67667818053108</v>
+        <v>43.67677729200576</v>
       </c>
       <c r="V74" t="s">
         <v>182</v>
@@ -7650,52 +7650,52 @@
     </row>
     <row r="75" spans="1:34">
       <c r="A75" s="1">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="C75">
-        <v>1453.733147099012</v>
+        <v>1453.733147113155</v>
       </c>
       <c r="D75">
-        <v>19406.09897092375</v>
+        <v>19406.09874321437</v>
       </c>
       <c r="E75">
-        <v>0.640975425172586</v>
+        <v>0.6409753485673552</v>
       </c>
       <c r="G75">
         <v>0.00242</v>
       </c>
       <c r="H75">
-        <v>0.3507297758335511</v>
+        <v>0.3507299512892643</v>
       </c>
       <c r="I75">
-        <v>1123.455832454246</v>
+        <v>1123.455833262278</v>
       </c>
       <c r="J75">
-        <v>1661.977212290165</v>
+        <v>1661.964429588654</v>
       </c>
       <c r="K75">
-        <v>0.6290021869221518</v>
+        <v>0.6290064675628958</v>
       </c>
       <c r="N75">
-        <v>0.4452720554963593</v>
+        <v>0.4452436856505225</v>
       </c>
       <c r="O75">
-        <v>330.2773146447655</v>
+        <v>330.2773138508778</v>
       </c>
       <c r="P75">
-        <v>1.00060651971233</v>
+        <v>1.000606522117488</v>
       </c>
       <c r="S75">
-        <v>37.24459697554101</v>
+        <v>37.24458590909412</v>
       </c>
       <c r="T75">
-        <v>6.752345595232122</v>
+        <v>6.752173579131103</v>
       </c>
       <c r="U75">
-        <v>43.99694257077313</v>
+        <v>43.99675948822522</v>
       </c>
       <c r="V75" t="s">
         <v>183</v>
@@ -7736,52 +7736,52 @@
     </row>
     <row r="76" spans="1:34">
       <c r="A76" s="1">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
       <c r="C76">
-        <v>1453.731503785081</v>
+        <v>1453.731503775221</v>
       </c>
       <c r="D76">
-        <v>19630.12427928906</v>
+        <v>19630.12309162354</v>
       </c>
       <c r="E76">
-        <v>0.6369965529935624</v>
+        <v>0.6369966546290188</v>
       </c>
       <c r="G76">
         <v>0.00258</v>
       </c>
       <c r="H76">
-        <v>0.3711124747299008</v>
+        <v>0.3711120731559501</v>
       </c>
       <c r="I76">
-        <v>1123.448906940237</v>
+        <v>1123.448905521825</v>
       </c>
       <c r="J76">
-        <v>1700.82508448712</v>
+        <v>1700.844285237337</v>
       </c>
       <c r="K76">
-        <v>0.6466548814497388</v>
+        <v>0.6466524783731066</v>
       </c>
       <c r="N76">
-        <v>0.3925362577625799</v>
+        <v>0.3925688855976509</v>
       </c>
       <c r="O76">
-        <v>330.2825968448449</v>
+        <v>330.2825982533959</v>
       </c>
       <c r="P76">
-        <v>1.000590517041016</v>
+        <v>1.000590512773814</v>
       </c>
       <c r="S76">
-        <v>39.78043677386891</v>
+        <v>39.78044898374196</v>
       </c>
       <c r="T76">
-        <v>6.38238317048286</v>
+        <v>6.382452509543989</v>
       </c>
       <c r="U76">
-        <v>46.16281994435177</v>
+        <v>46.16290149328594</v>
       </c>
       <c r="V76" t="s">
         <v>184</v>
@@ -7822,52 +7822,52 @@
     </row>
     <row r="77" spans="1:34">
       <c r="A77" s="1">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
         <v>108</v>
       </c>
       <c r="C77">
-        <v>1453.733395243965</v>
+        <v>1453.733395253289</v>
       </c>
       <c r="D77">
-        <v>19420.4868559998</v>
+        <v>19420.48984016729</v>
       </c>
       <c r="E77">
-        <v>0.6357706570956381</v>
+        <v>0.635770424098993</v>
       </c>
       <c r="G77">
         <v>0.00244</v>
       </c>
       <c r="H77">
-        <v>0.3667359284663649</v>
+        <v>0.3667368878496088</v>
       </c>
       <c r="I77">
-        <v>1123.46802877939</v>
+        <v>1123.468025497414</v>
       </c>
       <c r="J77">
-        <v>1674.336911701258</v>
+        <v>1674.378488412338</v>
       </c>
       <c r="K77">
-        <v>0.6401781643460236</v>
+        <v>0.6401761233219359</v>
       </c>
       <c r="N77">
-        <v>0.4179607808802285</v>
+        <v>0.4180259016064161</v>
       </c>
       <c r="O77">
-        <v>330.2653664645754</v>
+        <v>330.2653697558756</v>
       </c>
       <c r="P77">
-        <v>1.000642719169526</v>
+        <v>1.000642709197498</v>
       </c>
       <c r="S77">
-        <v>38.31933752414204</v>
+        <v>38.31936532178086</v>
       </c>
       <c r="T77">
-        <v>6.588139656582893</v>
+        <v>6.588452190646384</v>
       </c>
       <c r="U77">
-        <v>44.90747718072492</v>
+        <v>44.90781751242725</v>
       </c>
       <c r="V77" t="s">
         <v>185</v>
@@ -7908,52 +7908,52 @@
     </row>
     <row r="78" spans="1:34">
       <c r="A78" s="1">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
       </c>
       <c r="C78">
-        <v>1453.741118667163</v>
+        <v>1453.741118671579</v>
       </c>
       <c r="D78">
-        <v>19094.77611139834</v>
+        <v>19094.77962083993</v>
       </c>
       <c r="E78">
-        <v>0.6363479441628105</v>
+        <v>0.6363477429182082</v>
       </c>
       <c r="G78">
         <v>0.00233</v>
       </c>
       <c r="H78">
-        <v>0.3639162024103921</v>
+        <v>0.3639171425560962</v>
       </c>
       <c r="I78">
-        <v>1123.455638066921</v>
+        <v>1123.4556361906</v>
       </c>
       <c r="J78">
-        <v>1565.981693099835</v>
+        <v>1566.008985854686</v>
       </c>
       <c r="K78">
-        <v>0.6309035102320497</v>
+        <v>0.6309004259077673</v>
       </c>
       <c r="N78">
-        <v>0.457219396474554</v>
+        <v>0.4572686568878274</v>
       </c>
       <c r="O78">
-        <v>330.2854806002422</v>
+        <v>330.2854824809788</v>
       </c>
       <c r="P78">
-        <v>1.000581780785645</v>
+        <v>1.000581775088056</v>
       </c>
       <c r="S78">
-        <v>37.12622327862181</v>
+        <v>37.12625379721084</v>
       </c>
       <c r="T78">
-        <v>7.009282905019496</v>
+        <v>7.009487338243835</v>
       </c>
       <c r="U78">
-        <v>44.1355061836413</v>
+        <v>44.13574113545468</v>
       </c>
       <c r="V78" t="s">
         <v>186</v>
